--- a/fun with fd.xlsx
+++ b/fun with fd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\victo\source\repos\SaxoPUKCompFin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAC34A69-94E2-4F08-9FD2-84A9B83CD038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{59135DE0-C2CA-4E0D-A166-3A17A674F783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,6 +26,7 @@
     <sheet name="accuracy (2)" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="181029" calcMode="manual" calcCompleted="0" calcOnSave="0"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -871,157 +872,157 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
                 <c:pt idx="0">
-                  <c:v>1.1216876847914208E-8</c:v>
+                  <c:v>3.4139673197889342E-11</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.0131366540029623E-9</c:v>
+                  <c:v>2.3976070450676084E-11</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.8361738614301574E-8</c:v>
+                  <c:v>3.7628050549072418E-11</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.081093147658038E-8</c:v>
+                  <c:v>1.5049643013585491E-9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0359612931229214E-7</c:v>
+                  <c:v>2.7852265639909192E-10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.6391760188750333E-8</c:v>
+                  <c:v>3.5965553068735764E-9</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.9965119546854943E-8</c:v>
+                  <c:v>3.6453739024502444E-9</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.8416744884706867E-8</c:v>
+                  <c:v>1.174288849059075E-8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.7271908937693816E-7</c:v>
+                  <c:v>1.0686001848602535E-8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.4021337486069125E-7</c:v>
+                  <c:v>1.7558076756716317E-8</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.4134875244150419E-7</c:v>
+                  <c:v>1.9346763978982309E-8</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.0972799304888173E-6</c:v>
+                  <c:v>4.217089587244791E-8</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9.6519162668097663E-6</c:v>
+                  <c:v>4.2165444940014232E-8</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.2028161044879396E-6</c:v>
+                  <c:v>5.3754088075935678E-7</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.674797944909514E-6</c:v>
+                  <c:v>3.6597583980964819E-7</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.6571219765711558E-6</c:v>
+                  <c:v>8.7674995559354781E-6</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.1154121326736085E-4</c:v>
+                  <c:v>4.7812496337440456E-5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.4667653103236127E-5</c:v>
+                  <c:v>7.4310334491085475E-6</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.2904849445241604E-5</c:v>
+                  <c:v>1.3532861929305164E-4</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.2364262468690231E-4</c:v>
+                  <c:v>5.8246813078402654E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>9.446794207008893E-4</c:v>
+                  <c:v>2.2714471022918209E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.0979056931209286E-4</c:v>
+                  <c:v>2.7013993659277341E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.8809273212727668E-3</c:v>
+                  <c:v>1.7022448525198894E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.15025611454535939</c:v>
+                  <c:v>3.6150406660064624E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.21512644682959187</c:v>
+                  <c:v>0.25346360711046284</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.38444779538925605</c:v>
+                  <c:v>0.18595100392579089</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4.985202377228698E-2</c:v>
+                  <c:v>0.30198996492152619</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>6.2406499979944782E-2</c:v>
+                  <c:v>0.11748334668196117</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3.4512947852443097E-2</c:v>
+                  <c:v>8.0659823162975482E-3</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.6541556525603011E-2</c:v>
+                  <c:v>3.3605357650285323E-3</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4.1082555187061498E-2</c:v>
+                  <c:v>1.5637061420895812E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>4.1551695376908608E-2</c:v>
+                  <c:v>8.7033473563598231E-4</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2.595408838063179E-4</c:v>
+                  <c:v>1.5673816236250202E-3</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>7.2943335214826924E-4</c:v>
+                  <c:v>4.3104008954585504E-4</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.2861894813198299E-5</c:v>
+                  <c:v>1.4415408636441656E-4</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2.2556715750332171E-5</c:v>
+                  <c:v>5.1561688132348673E-5</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.7493629445012487E-5</c:v>
+                  <c:v>2.2419850654112169E-5</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.6559090939533863E-5</c:v>
+                  <c:v>2.6134469626608954E-5</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2.8823409908631718E-5</c:v>
+                  <c:v>7.8110776530393453E-6</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4.6064236253194357E-6</c:v>
+                  <c:v>8.9416961525979764E-6</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>8.4160598923954861E-8</c:v>
+                  <c:v>6.4930706233758569E-6</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.242306694684608E-7</c:v>
+                  <c:v>2.7598388364527134E-6</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2.4620710184111776E-8</c:v>
+                  <c:v>1.4424084057511069E-6</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>7.2492037977713121E-9</c:v>
+                  <c:v>5.2291870870868049E-7</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>3.9726076445009058E-9</c:v>
+                  <c:v>1.1482208977057565E-6</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.8761651358971207E-8</c:v>
+                  <c:v>1.4253659265753541E-6</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>3.6325169883653077E-9</c:v>
+                  <c:v>7.5660020728702005E-8</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>4.9128658564008368E-10</c:v>
+                  <c:v>2.3351425611925885E-8</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>3.2751621936066935E-10</c:v>
+                  <c:v>8.5516570058114136E-8</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2.3568170804929643E-10</c:v>
+                  <c:v>1.1135011040889424E-8</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.5023108289894216E-9</c:v>
+                  <c:v>1.9438808414229874E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -22540,8 +22541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A2:Q732"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22636,7 +22637,7 @@
         <v>38</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
@@ -22763,14 +22764,14 @@
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="10">
         <f ca="1">NOW()</f>
-        <v>44932.441240046297</v>
+        <v>44932.478603819443</v>
       </c>
       <c r="B25" t="s">
         <v>41</v>
       </c>
       <c r="C25" s="11">
         <f ca="1">IF(B28&lt;&gt;"",NOW()-A25)</f>
-        <v>0</v>
+        <v>1.0416697477921844E-6</v>
       </c>
       <c r="E25" t="s">
         <v>44</v>
@@ -22814,18 +22815,18 @@
         <v>res 0</v>
       </c>
       <c r="C28" s="7">
-        <v>8.5452614896176268E-2</v>
+        <v>0.10589778224083123</v>
       </c>
       <c r="E28" t="str">
         <f t="array" ref="E28:F732">_xll.xBlackFd(C3:C6,C9:C14,C17:C23)</f>
         <v>res 0</v>
       </c>
       <c r="F28" s="28">
-        <v>7.9419974041638738E-2</v>
+        <v>0.10293942460487857</v>
       </c>
       <c r="G28" s="26">
         <f>F28/G26-1</f>
-        <v>3.2351678705744291E-5</v>
+        <v>0.29618217722028151</v>
       </c>
       <c r="J28" t="s">
         <v>1</v>
@@ -22849,7 +22850,7 @@
       </c>
       <c r="G29">
         <f>ABS(G26-F28)</f>
-        <v>2.569286362288925E-6</v>
+        <v>2.3522019849602116E-2</v>
       </c>
       <c r="I29" t="s">
         <v>0</v>
@@ -22905,11 +22906,11 @@
         <v>-2.3025843111087587</v>
       </c>
       <c r="P30">
-        <f t="shared" ref="P30:Q30" si="0">LN(ABS(K30-K$45))</f>
+        <f>LN(ABS(K30-K$45))</f>
         <v>-4.4818590397893239</v>
       </c>
       <c r="Q30">
-        <f t="shared" si="0"/>
+        <f>LN(ABS(L30-L$45))</f>
         <v>-3.9079105748838709</v>
       </c>
     </row>
@@ -22918,13 +22919,13 @@
         <v>-1.2360679774997898</v>
       </c>
       <c r="C31" s="7">
-        <v>-8.6808203959460018E-10</v>
+        <v>0</v>
       </c>
       <c r="E31">
         <v>0.10687792566038574</v>
       </c>
       <c r="F31">
-        <v>-2.5971496884532802E-10</v>
+        <v>0</v>
       </c>
       <c r="I31" s="18">
         <v>2</v>
@@ -22937,19 +22938,19 @@
         <v>9.3475947050216529E-2</v>
       </c>
       <c r="N31">
-        <f t="shared" ref="N31:N44" si="1">LN(I31)</f>
+        <f t="shared" ref="N31:N44" si="0">LN(I31)</f>
         <v>0.69314718055994529</v>
       </c>
       <c r="O31">
-        <f t="shared" ref="O31:O44" si="2">LN(ABS(J31-J$45))</f>
+        <f t="shared" ref="O31:O44" si="1">LN(ABS(J31-J$45))</f>
         <v>-2.3025843111087587</v>
       </c>
       <c r="P31">
-        <f t="shared" ref="P31:P44" si="3">LN(ABS(K31-K$45))</f>
+        <f t="shared" ref="P31:P44" si="2">LN(ABS(K31-K$45))</f>
         <v>-5.1189953093602343</v>
       </c>
       <c r="Q31">
-        <f t="shared" ref="Q31:Q44" si="4">LN(ABS(L31-L$45))</f>
+        <f t="shared" ref="Q31:Q44" si="3">LN(ABS(L31-L$45))</f>
         <v>-5.0322494072837163</v>
       </c>
     </row>
@@ -22958,13 +22959,13 @@
         <v>-1.1904339371426513</v>
       </c>
       <c r="C32" s="7">
-        <v>2.8641535475168338E-9</v>
+        <v>3.47301960927925E-9</v>
       </c>
       <c r="E32">
         <v>0.1117661409430161</v>
       </c>
       <c r="F32">
-        <v>8.5397172069977982E-10</v>
+        <v>1.0444016629629998E-9</v>
       </c>
       <c r="I32" s="18">
         <v>5</v>
@@ -22977,19 +22978,19 @@
         <v>0.10133017916447173</v>
       </c>
       <c r="N32">
+        <f t="shared" si="0"/>
+        <v>1.6094379124341003</v>
+      </c>
+      <c r="O32">
         <f t="shared" si="1"/>
-        <v>1.6094379124341003</v>
-      </c>
-      <c r="O32">
+        <v>-2.3025843111087587</v>
+      </c>
+      <c r="P32">
         <f t="shared" si="2"/>
-        <v>-2.3025843111087587</v>
-      </c>
-      <c r="P32">
+        <v>-6.0079894021385929</v>
+      </c>
+      <c r="Q32">
         <f t="shared" si="3"/>
-        <v>-6.0079894021385929</v>
-      </c>
-      <c r="Q32">
-        <f t="shared" si="4"/>
         <v>-6.6224910309270095</v>
       </c>
     </row>
@@ -22998,13 +22999,13 @@
         <v>-1.1447998967855129</v>
       </c>
       <c r="C33" s="7">
-        <v>7.5930905670905346E-9</v>
+        <v>8.1155957210692529E-9</v>
       </c>
       <c r="E33">
         <v>0.11687792576539653</v>
       </c>
       <c r="F33">
-        <v>2.3119360601282204E-9</v>
+        <v>2.4832695586821242E-9</v>
       </c>
       <c r="I33" s="18">
         <v>10</v>
@@ -23017,19 +23018,19 @@
         <v>9.9952971443728056E-2</v>
       </c>
       <c r="N33">
+        <f t="shared" si="0"/>
+        <v>2.3025850929940459</v>
+      </c>
+      <c r="O33">
         <f t="shared" si="1"/>
-        <v>2.3025850929940459</v>
-      </c>
-      <c r="O33">
+        <v>-2.3025843111087587</v>
+      </c>
+      <c r="P33">
         <f t="shared" si="2"/>
-        <v>-2.3025843111087587</v>
-      </c>
-      <c r="P33">
+        <v>-6.6934928581932569</v>
+      </c>
+      <c r="Q33">
         <f t="shared" si="3"/>
-        <v>-6.6934928581932569</v>
-      </c>
-      <c r="Q33">
-        <f t="shared" si="4"/>
         <v>-9.9633594505334422</v>
       </c>
     </row>
@@ -23038,13 +23039,13 @@
         <v>-1.0991658564283744</v>
       </c>
       <c r="C34" s="7">
-        <v>1.4612280337574106E-8</v>
+        <v>1.5205599354424511E-8</v>
       </c>
       <c r="E34">
         <v>0.12222350540121378</v>
       </c>
       <c r="F34">
-        <v>4.522774024351242E-9</v>
+        <v>4.7250139183841847E-9</v>
       </c>
       <c r="I34" s="18">
         <v>20</v>
@@ -23057,19 +23058,19 @@
         <v>0.1000077883543609</v>
       </c>
       <c r="N34">
+        <f t="shared" si="0"/>
+        <v>2.9957322735539909</v>
+      </c>
+      <c r="O34">
         <f t="shared" si="1"/>
-        <v>2.9957322735539909</v>
-      </c>
-      <c r="O34">
+        <v>-2.3025843111087587</v>
+      </c>
+      <c r="P34">
         <f t="shared" si="2"/>
-        <v>-2.3025843111087587</v>
-      </c>
-      <c r="P34">
+        <v>-7.3831290091010837</v>
+      </c>
+      <c r="Q34">
         <f t="shared" si="3"/>
-        <v>-7.3831290091010837</v>
-      </c>
-      <c r="Q34">
-        <f t="shared" si="4"/>
         <v>-11.771352798087069</v>
       </c>
     </row>
@@ -23078,13 +23079,13 @@
         <v>-1.0535318160712359</v>
       </c>
       <c r="C35" s="7">
-        <v>2.5816850965763849E-8</v>
+        <v>2.66653793193812E-8</v>
       </c>
       <c r="E35">
         <v>0.12781357279171804</v>
       </c>
       <c r="F35">
-        <v>8.1090296362089193E-9</v>
+        <v>8.4056012025447678E-9</v>
       </c>
       <c r="I35" s="18">
         <v>50</v>
@@ -23097,19 +23098,19 @@
         <v>0.1000013104623767</v>
       </c>
       <c r="N35">
+        <f t="shared" si="0"/>
+        <v>3.912023005428146</v>
+      </c>
+      <c r="O35">
         <f t="shared" si="1"/>
-        <v>3.912023005428146</v>
-      </c>
-      <c r="O35">
+        <v>-2.3025843111087587</v>
+      </c>
+      <c r="P35">
         <f t="shared" si="2"/>
-        <v>-2.3025843111087587</v>
-      </c>
-      <c r="P35">
+        <v>-8.2974367683903392</v>
+      </c>
+      <c r="Q35">
         <f t="shared" si="3"/>
-        <v>-8.2974367683903392</v>
-      </c>
-      <c r="Q35">
-        <f t="shared" si="4"/>
         <v>-13.596568229910467</v>
       </c>
     </row>
@@ -23118,13 +23119,13 @@
         <v>-1.0078977757140974</v>
       </c>
       <c r="C36" s="7">
-        <v>4.4141295856690469E-8</v>
+        <v>4.5507458617636989E-8</v>
       </c>
       <c r="E36">
         <v>0.13365930993517047</v>
       </c>
       <c r="F36">
-        <v>1.4059834588103801E-8</v>
+        <v>1.4545580696906505E-8</v>
       </c>
       <c r="I36" s="18">
         <v>100</v>
@@ -23139,19 +23140,19 @@
         <v>0.10000037693052868</v>
       </c>
       <c r="N36">
+        <f t="shared" si="0"/>
+        <v>4.6051701859880918</v>
+      </c>
+      <c r="O36">
         <f t="shared" si="1"/>
-        <v>4.6051701859880918</v>
-      </c>
-      <c r="O36">
+        <v>-9.2055804217114066</v>
+      </c>
+      <c r="P36">
         <f t="shared" si="2"/>
-        <v>-9.2055804217114066</v>
-      </c>
-      <c r="P36">
+        <v>-8.9899797292691925</v>
+      </c>
+      <c r="Q36">
         <f t="shared" si="3"/>
-        <v>-8.9899797292691925</v>
-      </c>
-      <c r="Q36">
-        <f t="shared" si="4"/>
         <v>-14.982741234650543</v>
       </c>
     </row>
@@ -23160,13 +23161,13 @@
         <v>-0.96226373535695886</v>
       </c>
       <c r="C37" s="7">
-        <v>7.4212925924779888E-8</v>
+        <v>7.6508895624253465E-8</v>
       </c>
       <c r="E37">
         <v>0.13977241025456683</v>
       </c>
       <c r="F37">
-        <v>2.3966671543702501E-8</v>
+        <v>2.479503284365971E-8</v>
       </c>
       <c r="I37" s="18">
         <v>200</v>
@@ -23181,19 +23182,19 @@
         <v>0.10000014351927443</v>
       </c>
       <c r="N37">
+        <f t="shared" si="0"/>
+        <v>5.2983173665480363</v>
+      </c>
+      <c r="O37">
         <f t="shared" si="1"/>
-        <v>5.2983173665480363</v>
-      </c>
-      <c r="O37">
+        <v>-9.6822611655727933</v>
+      </c>
+      <c r="P37">
         <f t="shared" si="2"/>
-        <v>-9.6822611655727933</v>
-      </c>
-      <c r="P37">
+        <v>-9.6829029961425821</v>
+      </c>
+      <c r="Q37">
         <f t="shared" si="3"/>
-        <v>-9.6829029961425821</v>
-      </c>
-      <c r="Q37">
-        <f t="shared" si="4"/>
         <v>-16.368913828429253</v>
       </c>
     </row>
@@ -23202,13 +23203,13 @@
         <v>-0.91662969499982028</v>
       </c>
       <c r="C38" s="7">
-        <v>1.2333860239386868E-7</v>
+        <v>1.2723580305664137E-7</v>
       </c>
       <c r="E38">
         <v>0.1461651019883819</v>
       </c>
       <c r="F38">
-        <v>4.0388925418013437E-8</v>
+        <v>4.1815142551141098E-8</v>
       </c>
       <c r="I38" s="18">
         <v>400</v>
@@ -23223,19 +23224,19 @@
         <v>0.10000008516468933</v>
       </c>
       <c r="N38">
+        <f t="shared" si="0"/>
+        <v>5.9914645471079817</v>
+      </c>
+      <c r="O38">
         <f t="shared" si="1"/>
-        <v>5.9914645471079817</v>
-      </c>
-      <c r="O38">
+        <v>-10.375768040629602</v>
+      </c>
+      <c r="P38">
         <f t="shared" si="2"/>
-        <v>-10.375768040629602</v>
-      </c>
-      <c r="P38">
+        <v>-10.376089125307512</v>
+      </c>
+      <c r="Q38">
         <f t="shared" si="3"/>
-        <v>-10.376089125307512</v>
-      </c>
-      <c r="Q38">
-        <f t="shared" si="4"/>
         <v>-17.754812290315662</v>
       </c>
     </row>
@@ -23244,13 +23245,13 @@
         <v>-0.87099565464268169</v>
       </c>
       <c r="C39" s="7">
-        <v>2.0299283703018867E-7</v>
+        <v>2.095941630616838E-7</v>
       </c>
       <c r="E39">
         <v>0.15285017265112263</v>
       </c>
       <c r="F39">
-        <v>6.7418275296769342E-8</v>
+        <v>6.9869220550879344E-8</v>
       </c>
       <c r="I39" s="18">
         <v>800</v>
@@ -23265,19 +23266,19 @@
         <v>0.10000007057593061</v>
       </c>
       <c r="N39">
+        <f t="shared" si="0"/>
+        <v>6.6846117276679271</v>
+      </c>
+      <c r="O39">
         <f t="shared" si="1"/>
-        <v>6.6846117276679271</v>
-      </c>
-      <c r="O39">
+        <v>-11.069395499831066</v>
+      </c>
+      <c r="P39">
         <f t="shared" si="2"/>
-        <v>-11.069395499831066</v>
-      </c>
-      <c r="P39">
+        <v>-11.069556316223764</v>
+      </c>
+      <c r="Q39">
         <f t="shared" si="3"/>
-        <v>-11.069556316223764</v>
-      </c>
-      <c r="Q39">
-        <f t="shared" si="4"/>
         <v>-19.139547696742639</v>
       </c>
     </row>
@@ -23286,13 +23287,13 @@
         <v>-0.82536161428554311</v>
       </c>
       <c r="C40" s="7">
-        <v>3.3104617847484095E-7</v>
+        <v>3.4215856380026182E-7</v>
       </c>
       <c r="E40">
         <v>0.15984099461261997</v>
       </c>
       <c r="F40">
-        <v>1.1154325207651242E-7</v>
+        <v>1.1573046594941825E-7</v>
       </c>
       <c r="I40" s="18">
         <v>1600</v>
@@ -23307,19 +23308,19 @@
         <v>0.10000006692875674</v>
       </c>
       <c r="N40">
+        <f t="shared" si="0"/>
+        <v>7.3777589082278725</v>
+      </c>
+      <c r="O40">
         <f t="shared" si="1"/>
-        <v>7.3777589082278725</v>
-      </c>
-      <c r="O40">
+        <v>-11.763383757810262</v>
+      </c>
+      <c r="P40">
         <f t="shared" si="2"/>
-        <v>-11.763383757810262</v>
-      </c>
-      <c r="P40">
+        <v>-11.763464649778419</v>
+      </c>
+      <c r="Q40">
         <f t="shared" si="3"/>
-        <v>-11.763464649778419</v>
-      </c>
-      <c r="Q40">
-        <f t="shared" si="4"/>
         <v>-20.519617529288269</v>
       </c>
     </row>
@@ -23328,13 +23329,13 @@
         <v>-0.77972757392840453</v>
       </c>
       <c r="C41" s="7">
-        <v>5.3507007351353483E-7</v>
+        <v>5.5363443752005141E-7</v>
       </c>
       <c r="E41">
         <v>0.16715155184722622</v>
       </c>
       <c r="F41">
-        <v>1.8296106216360079E-7</v>
+        <v>1.9006283336143505E-7</v>
       </c>
       <c r="I41" s="18">
         <v>3200</v>
@@ -23349,19 +23350,19 @@
         <v>0.10000006601693216</v>
       </c>
       <c r="N41">
+        <f t="shared" si="0"/>
+        <v>8.0709060887878188</v>
+      </c>
+      <c r="O41">
         <f t="shared" si="1"/>
-        <v>8.0709060887878188</v>
-      </c>
-      <c r="O41">
+        <v>-12.458154953433578</v>
+      </c>
+      <c r="P41">
         <f t="shared" si="2"/>
-        <v>-12.458154953433578</v>
-      </c>
-      <c r="P41">
+        <v>-12.458196315955643</v>
+      </c>
+      <c r="Q41">
         <f t="shared" si="3"/>
-        <v>-12.458196315955643</v>
-      </c>
-      <c r="Q41">
-        <f t="shared" si="4"/>
         <v>-21.881493185502304</v>
       </c>
     </row>
@@ -23370,13 +23371,13 @@
         <v>-0.73409353357126594</v>
       </c>
       <c r="C42" s="7">
-        <v>8.5718534603633127E-7</v>
+        <v>8.8794992901194937E-7</v>
       </c>
       <c r="E42">
         <v>0.17479646790642547</v>
       </c>
       <c r="F42">
-        <v>2.9754770036101167E-7</v>
+        <v>3.0950019929377902E-7</v>
       </c>
       <c r="I42" s="18">
         <v>6400</v>
@@ -23391,19 +23392,19 @@
         <v>0.10000006578901045</v>
       </c>
       <c r="N42">
+        <f t="shared" si="0"/>
+        <v>8.7640532693477624</v>
+      </c>
+      <c r="O42">
         <f t="shared" si="1"/>
-        <v>8.7640532693477624</v>
-      </c>
-      <c r="O42">
+        <v>-13.154527848933741</v>
+      </c>
+      <c r="P42">
         <f t="shared" si="2"/>
-        <v>-13.154527848933741</v>
-      </c>
-      <c r="P42">
+        <v>-13.154550274318161</v>
+      </c>
+      <c r="Q42">
         <f t="shared" si="3"/>
-        <v>-13.154550274318161</v>
-      </c>
-      <c r="Q42">
-        <f t="shared" si="4"/>
         <v>-23.175271708278974</v>
       </c>
     </row>
@@ -23412,13 +23413,13 @@
         <v>-0.68845949321412736</v>
       </c>
       <c r="C43" s="7">
-        <v>1.3610943411776496E-6</v>
+        <v>1.4116601062617866E-6</v>
       </c>
       <c r="E43">
         <v>0.18279103517081138</v>
       </c>
       <c r="F43">
-        <v>4.7978525660495795E-7</v>
+        <v>4.9974415081249192E-7</v>
       </c>
       <c r="I43" s="18">
         <v>10000</v>
@@ -23433,19 +23434,19 @@
         <v>0.10000006574426046</v>
       </c>
       <c r="N43">
+        <f t="shared" si="0"/>
+        <v>9.2103403719761836</v>
+      </c>
+      <c r="O43">
         <f t="shared" si="1"/>
-        <v>9.2103403719761836</v>
-      </c>
-      <c r="O43">
+        <v>-13.604448624093745</v>
+      </c>
+      <c r="P43">
         <f t="shared" si="2"/>
-        <v>-13.604448624093745</v>
-      </c>
-      <c r="P43">
+        <v>-13.604465182795025</v>
+      </c>
+      <c r="Q43">
         <f t="shared" si="3"/>
-        <v>-13.604465182795025</v>
-      </c>
-      <c r="Q43">
-        <f t="shared" si="4"/>
         <v>-23.908448921469457</v>
       </c>
     </row>
@@ -23454,13 +23455,13 @@
         <v>-0.64282545285698878</v>
       </c>
       <c r="C44" s="7">
-        <v>2.1421605619729528E-6</v>
+        <v>2.2245893070614905E-6</v>
       </c>
       <c r="E44">
         <v>0.19115124543994613</v>
       </c>
       <c r="F44">
-        <v>7.6706422650786811E-7</v>
+        <v>8.0013021504741912E-7</v>
       </c>
       <c r="I44" s="18">
         <v>100000</v>
@@ -23475,19 +23476,19 @@
         <v>0.10000006571380572</v>
       </c>
       <c r="N44">
+        <f t="shared" si="0"/>
+        <v>11.512925464970229</v>
+      </c>
+      <c r="O44">
         <f t="shared" si="1"/>
-        <v>11.512925464970229</v>
-      </c>
-      <c r="O44">
+        <v>-16.002357738818553</v>
+      </c>
+      <c r="P44">
         <f t="shared" si="2"/>
-        <v>-16.002357738818553</v>
-      </c>
-      <c r="P44">
+        <v>-16.002395665387962</v>
+      </c>
+      <c r="Q44">
         <f t="shared" si="3"/>
-        <v>-16.002395665387962</v>
-      </c>
-      <c r="Q44">
-        <f t="shared" si="4"/>
         <v>-25.240797483902821</v>
       </c>
     </row>
@@ -23496,13 +23497,13 @@
         <v>-0.59719141249985019</v>
       </c>
       <c r="C45" s="7">
-        <v>3.3416831994223152E-6</v>
+        <v>3.4749479076873382E-6</v>
       </c>
       <c r="E45">
         <v>0.19989382192129057</v>
       </c>
       <c r="F45">
-        <v>1.2159368727913026E-6</v>
+        <v>1.270285893818794E-6</v>
       </c>
       <c r="I45" s="18">
         <v>1000000</v>
@@ -23522,13 +23523,13 @@
         <v>-0.55155737214271161</v>
       </c>
       <c r="C46" s="7">
-        <v>5.1668651918258182E-6</v>
+        <v>5.3805481013409319E-6</v>
       </c>
       <c r="E46">
         <v>0.20903625268219381</v>
       </c>
       <c r="F46">
-        <v>1.9111046380037705E-6</v>
+        <v>1.9997327025164893E-6</v>
       </c>
       <c r="I46" s="18">
         <v>10000000</v>
@@ -23557,13 +23558,13 @@
         <v>-0.50592333178557303</v>
       </c>
       <c r="C47" s="7">
-        <v>7.9183976609278711E-6</v>
+        <v>8.2582178509212637E-6</v>
       </c>
       <c r="E47">
         <v>0.21859682563185773</v>
       </c>
       <c r="F47">
-        <v>2.9781883463342828E-6</v>
+        <v>3.1215810689508117E-6</v>
       </c>
       <c r="J47" s="17"/>
       <c r="K47" s="17"/>
@@ -23574,24 +23575,24 @@
         <v>-0.46028929142843444</v>
       </c>
       <c r="C48">
-        <v>1.202808151965971E-5</v>
+        <v>1.2564077627211605E-5</v>
       </c>
       <c r="E48">
         <v>0.22859466510325177</v>
       </c>
       <c r="F48">
-        <v>4.6016645088118353E-6</v>
+        <v>4.8318447067896043E-6</v>
       </c>
       <c r="J48" s="17">
         <f>J46-$C$6</f>
         <v>-9.9999932998033947E-2</v>
       </c>
       <c r="K48" s="17">
-        <f t="shared" ref="K48:L48" si="5">K46-$C$6</f>
+        <f>K46-$C$6</f>
         <v>-0.2</v>
       </c>
       <c r="L48" s="17">
-        <f t="shared" si="5"/>
+        <f>L46-$C$6</f>
         <v>-0.2</v>
       </c>
     </row>
@@ -23600,13 +23601,13 @@
         <v>-0.41465525107129586</v>
       </c>
       <c r="C49">
-        <v>1.8109472430664934E-5</v>
+        <v>1.8947999115625743E-5</v>
       </c>
       <c r="E49">
         <v>0.23904977010815412</v>
       </c>
       <c r="F49">
-        <v>7.0497634252994325E-6</v>
+        <v>7.4163730573636506E-6</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.25">
@@ -23614,13 +23615,13 @@
         <v>-0.36902121071415728</v>
       </c>
       <c r="C50">
-        <v>2.7025151847032516E-5</v>
+        <v>2.8326297760928842E-5</v>
       </c>
       <c r="E50">
         <v>0.24998305434184187</v>
       </c>
       <c r="F50">
-        <v>1.0708621304287542E-5</v>
+        <v>1.1287978200860576E-5</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.25">
@@ -23628,13 +23629,13 @@
         <v>-0.32338717035701869</v>
       </c>
       <c r="C51">
-        <v>3.9974865211900864E-5</v>
+        <v>4.1977498320534842E-5</v>
       </c>
       <c r="E51">
         <v>0.26141638801745343</v>
       </c>
       <c r="F51">
-        <v>1.6128561014421231E-5</v>
+        <v>1.703702453918886E-5</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.25">
@@ -23642,13 +23643,13 @@
         <v>-0.27775312999988011</v>
       </c>
       <c r="C52">
-        <v>5.8609383018367708E-5</v>
+        <v>6.16668153131424E-5</v>
       </c>
       <c r="E52">
         <v>0.27337264161370539</v>
       </c>
       <c r="F52">
-        <v>2.4086038945174288E-5</v>
+        <v>2.549955815519377E-5</v>
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.25">
@@ -23656,13 +23657,13 @@
         <v>-0.23211908964274153</v>
       </c>
       <c r="C53">
-        <v>8.5175467219156075E-5</v>
+        <v>8.9805750721113297E-5</v>
       </c>
       <c r="E53">
         <v>0.28587573162347385</v>
       </c>
       <c r="F53">
-        <v>3.5665523415744495E-5</v>
+        <v>3.7847972271066438E-5</v>
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.25">
@@ -23670,13 +23671,13 @@
         <v>-0.18648504928560294</v>
       </c>
       <c r="C54">
-        <v>1.2269768041862558E-4</v>
+        <v>1.2965385169786938E-4</v>
       </c>
       <c r="E54">
         <v>0.29895066839475276</v>
       </c>
       <c r="F54">
-        <v>5.2366334718734229E-5</v>
+        <v>5.5710218497346139E-5</v>
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.25">
@@ -23684,13 +23685,13 @@
         <v>-0.14085100892846436</v>
       </c>
       <c r="C55">
-        <v>1.7520285507693055E-4</v>
+        <v>1.855700933716321E-4</v>
       </c>
       <c r="E55">
         <v>0.31262360615968754</v>
       </c>
       <c r="F55">
-        <v>7.6240233812344542E-5</v>
+        <v>8.132464907398386E-5</v>
       </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.25">
@@ -23698,13 +23699,13 @@
         <v>-9.5216968571325791E-2</v>
       </c>
       <c r="C56">
-        <v>2.4799272525307975E-4</v>
+        <v>2.633214405580138E-4</v>
       </c>
       <c r="E56">
         <v>0.32692189535175792</v>
       </c>
       <c r="F56">
-        <v>1.1006623306902746E-4</v>
+        <v>1.177386646688097E-4</v>
       </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.25">
@@ -23712,13 +23713,13 @@
         <v>-4.9582928214187222E-2</v>
       </c>
       <c r="C57">
-        <v>3.479693853727302E-4</v>
+        <v>3.7045576992082458E-4</v>
       </c>
       <c r="E57">
         <v>0.34187413731576205</v>
       </c>
       <c r="F57">
-        <v>1.5756963581177436E-4</v>
+        <v>1.6906037867025082E-4</v>
       </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.25">
@@ -23726,13 +23727,13 @@
         <v>-3.9488878570486524E-3</v>
       </c>
       <c r="C58">
-        <v>4.8401675119566929E-4</v>
+        <v>5.1674537123394884E-4</v>
       </c>
       <c r="E58">
         <v>0.35751024152004102</v>
       </c>
       <c r="F58">
-        <v>2.2369258977411751E-4</v>
+        <v>2.407734069866364E-4</v>
       </c>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.25">
@@ -23740,13 +23741,13 @@
         <v>4.1685152500089917E-2</v>
       </c>
       <c r="C59">
-        <v>6.6743894488492943E-4</v>
+        <v>7.1470557460118352E-4</v>
       </c>
       <c r="E59">
         <v>0.37386148538538549</v>
       </c>
       <c r="F59">
-        <v>3.1492334477187803E-4</v>
+        <v>3.4012555063546088E-4</v>
       </c>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.25">
@@ -23754,13 +23755,13 @@
         <v>8.7319192857228486E-2</v>
       </c>
       <c r="C60">
-        <v>9.1245342927016664E-4</v>
+        <v>9.8019058009666204E-4</v>
       </c>
       <c r="E60">
         <v>0.39096057685030422</v>
       </c>
       <c r="F60">
-        <v>4.3969080779084329E-4</v>
+        <v>4.7660244430108568E-4</v>
       </c>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.25">
@@ -23768,13 +23769,13 @@
         <v>0.13295323321436706</v>
       </c>
       <c r="C61">
-        <v>1.2367327499507605E-3</v>
+        <v>1.3330652562846489E-3</v>
       </c>
       <c r="E61">
         <v>0.40884171979780415</v>
       </c>
       <c r="F61">
-        <v>6.088297590323891E-4</v>
+        <v>6.6249708244947049E-4</v>
       </c>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.25">
@@ -23782,13 +23783,13 @@
         <v>0.17858727357150561</v>
       </c>
       <c r="C62">
-        <v>1.6619839561834427E-3</v>
+        <v>1.7979475533016047E-3</v>
       </c>
       <c r="E62">
         <v>0.42754068247455868</v>
       </c>
       <c r="F62">
-        <v>8.3612011137608781E-4</v>
+        <v>9.1358540000400113E-4</v>
       </c>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.25">
@@ -23796,13 +23797,13 @@
         <v>0.22422131392864419</v>
       </c>
       <c r="C63">
-        <v>2.2145493045427635E-3</v>
+        <v>2.4050113631414577E-3</v>
       </c>
       <c r="E63">
         <v>0.44709486903932433</v>
       </c>
       <c r="F63">
-        <v>1.1389007719737048E-3</v>
+        <v>1.2499166966683762E-3</v>
       </c>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.25">
@@ -23810,13 +23811,13 @@
         <v>0.26985535428578278</v>
       </c>
       <c r="C64">
-        <v>2.9260059528516016E-3</v>
+        <v>3.1908343779959965E-3</v>
       </c>
       <c r="E64">
         <v>0.46754339438372744</v>
       </c>
       <c r="F64">
-        <v>1.538754953094865E-3</v>
+        <v>1.6967256158644678E-3</v>
       </c>
     </row>
     <row r="65" spans="2:17" x14ac:dyDescent="0.25">
@@ -23824,13 +23825,13 @@
         <v>0.31548939464292136</v>
       </c>
       <c r="C65">
-        <v>3.83373638897111E-3</v>
+        <v>4.1992700828265951E-3</v>
       </c>
       <c r="E65">
         <v>0.48892716237508643</v>
       </c>
       <c r="F65">
-        <v>2.0622592000454202E-3</v>
+        <v>2.2854696472448905E-3</v>
       </c>
       <c r="J65" t="s">
         <v>1</v>
@@ -23844,13 +23845,13 @@
         <v>0.36112343500005994</v>
       </c>
       <c r="C66">
-        <v>4.9814357801904749E-3</v>
+        <v>5.4823179147203303E-3</v>
       </c>
       <c r="E66">
         <v>0.51128894767778177</v>
       </c>
       <c r="F66">
-        <v>2.7417830604211857E-3</v>
+        <v>3.054992824438637E-3</v>
       </c>
       <c r="G66" s="18">
         <v>1</v>
@@ -23882,13 +23883,13 @@
         <v>0.40675747535719853</v>
       </c>
       <c r="C67">
-        <v>6.4195178316726982E-3</v>
+        <v>7.1009613621421273E-3</v>
       </c>
       <c r="E67">
         <v>0.53467348131684422</v>
       </c>
       <c r="F67">
-        <v>3.6163204119124283E-3</v>
+        <v>4.0528126438640023E-3</v>
       </c>
       <c r="G67" s="20" t="str">
         <f>F29</f>
@@ -23909,11 +23910,11 @@
         <v>0</v>
       </c>
       <c r="P67">
-        <f t="shared" ref="P67:Q67" si="6">LN(ABS(K67-K$82))</f>
+        <f>LN(ABS(K67-K$82))</f>
         <v>-4.5991474197416897</v>
       </c>
       <c r="Q67">
-        <f t="shared" si="6"/>
+        <f>LN(ABS(L67-L$82))</f>
         <v>-7.5559907100902706</v>
       </c>
     </row>
@@ -23922,13 +23923,13 @@
         <v>0.45239151571433711</v>
       </c>
       <c r="C68">
-        <v>8.205377715317326E-3</v>
+        <v>9.12594094886242E-3</v>
       </c>
       <c r="E68">
         <v>0.55912754015491628</v>
       </c>
       <c r="F68">
-        <v>4.7323273006034056E-3</v>
+        <v>5.3365235505588105E-3</v>
       </c>
       <c r="I68" s="23">
         <v>2</v>
@@ -23941,15 +23942,15 @@
         <v>0.1033406443958643</v>
       </c>
       <c r="N68">
-        <f t="shared" ref="N68:N81" si="7">LN(I68)</f>
+        <f t="shared" ref="N68:N81" si="4">LN(I68)</f>
         <v>0.69314718055994529</v>
       </c>
       <c r="P68">
-        <f t="shared" ref="P68:P81" si="8">LN(ABS(K68-K$82))</f>
+        <f t="shared" ref="P68:P81" si="5">LN(ABS(K68-K$82))</f>
         <v>-5.159123161290796</v>
       </c>
       <c r="Q68">
-        <f t="shared" ref="Q68:Q81" si="9">LN(ABS(L68-L$82))</f>
+        <f t="shared" ref="Q68:Q81" si="6">LN(ABS(L68-L$82))</f>
         <v>-5.6973894071532243</v>
       </c>
     </row>
@@ -23958,13 +23959,13 @@
         <v>0.49802555607147569</v>
       </c>
       <c r="C69">
-        <v>1.0403469782295362E-2</v>
+        <v>1.1638428238982127E-2</v>
       </c>
       <c r="E69">
         <v>0.58470004046157042</v>
       </c>
       <c r="F69">
-        <v>6.1445351254732902E-3</v>
+        <v>6.975307044936224E-3</v>
       </c>
       <c r="I69" s="23">
         <v>5</v>
@@ -23977,15 +23978,15 @@
         <v>0.10027255570190584</v>
       </c>
       <c r="N69">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>1.6094379124341003</v>
       </c>
       <c r="P69">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>-5.9960872034876456</v>
       </c>
       <c r="Q69">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>-8.1573423457794885</v>
       </c>
     </row>
@@ -23994,13 +23995,13 @@
         <v>0.54365959642861428</v>
       </c>
       <c r="C70">
-        <v>1.3085159649190438E-2</v>
+        <v>1.4730568736116618E-2</v>
       </c>
       <c r="E70">
         <v>0.61144213576215489</v>
       </c>
       <c r="F70">
-        <v>7.9167026323632723E-3</v>
+        <v>9.0515360762208341E-3</v>
       </c>
       <c r="I70" s="23">
         <v>10</v>
@@ -24013,15 +24014,15 @@
         <v>0.10002260162862889</v>
       </c>
       <c r="N70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>2.3025850929940459</v>
       </c>
       <c r="P70">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>-6.6657787676752056</v>
       </c>
       <c r="Q70">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>-10.213577336876646</v>
       </c>
     </row>
@@ -24030,13 +24031,13 @@
         <v>0.58929363678575286</v>
       </c>
       <c r="C71">
-        <v>1.6328315261655402E-2</v>
+        <v>1.8505866218470224E-2</v>
       </c>
       <c r="E71">
         <v>0.63940731916189708</v>
       </c>
       <c r="F71">
-        <v>1.0122266006511584E-2</v>
+        <v>1.1662460485321937E-2</v>
       </c>
       <c r="I71" s="23">
         <v>20</v>
@@ -24049,15 +24050,15 @@
         <v>9.9993128965610564E-2</v>
       </c>
       <c r="N71">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>2.9957322735539909</v>
       </c>
       <c r="P71">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>-7.3480924127792342</v>
       </c>
       <c r="Q71">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>-11.841930721664745</v>
       </c>
     </row>
@@ -24066,13 +24067,13 @@
         <v>0.63492767714289144</v>
       </c>
       <c r="C72">
-        <v>2.0216609899960693E-2</v>
+        <v>2.3079388827389826E-2</v>
       </c>
       <c r="E72">
         <v>0.66865153034994573</v>
       </c>
       <c r="F72">
-        <v>1.284484395011138E-2</v>
+        <v>1.492196144287763E-2</v>
       </c>
       <c r="I72" s="23">
         <v>50</v>
@@ -24085,15 +24086,15 @@
         <v>9.9987087662795363E-2</v>
       </c>
       <c r="N72">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>3.912023005428146</v>
       </c>
       <c r="P72">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>-8.2582133728187852</v>
       </c>
       <c r="Q72">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>-13.671332707960925</v>
       </c>
     </row>
@@ -24102,13 +24103,13 @@
         <v>0.68056171750003003</v>
       </c>
       <c r="C73">
-        <v>2.4838521742685044E-2</v>
+        <v>2.8577788010955649E-2</v>
       </c>
       <c r="E73">
         <v>0.699233267497397</v>
       </c>
       <c r="F73">
-        <v>1.61785545399738E-2</v>
+        <v>1.8962366656323774E-2</v>
       </c>
       <c r="I73" s="23">
         <v>100</v>
@@ -24123,19 +24124,19 @@
         <v>9.9986221334575284E-2</v>
       </c>
       <c r="N73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>4.6051701859880918</v>
       </c>
       <c r="O73">
-        <f t="shared" ref="O73:O81" si="10">LN(ABS(J73-J$82))</f>
+        <f t="shared" ref="O73:O81" si="7">LN(ABS(J73-J$82))</f>
         <v>-9.0247085198885593</v>
       </c>
       <c r="P73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>-8.949396008818443</v>
       </c>
       <c r="Q73">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>-15.057665431789397</v>
       </c>
     </row>
@@ -24144,13 +24145,13 @@
         <v>0.72619575785716861</v>
       </c>
       <c r="C74">
-        <v>3.0286029186240834E-2</v>
+        <v>3.5139134804814301E-2</v>
       </c>
       <c r="E74">
         <v>0.73121370427313814</v>
       </c>
       <c r="F74">
-        <v>2.0228103326863492E-2</v>
+        <v>2.3936325038369004E-2</v>
       </c>
       <c r="I74" s="23">
         <v>200</v>
@@ -24165,19 +24166,19 @@
         <v>9.9986004762746286E-2</v>
       </c>
       <c r="N74">
+        <f t="shared" si="4"/>
+        <v>5.2983173665480363</v>
+      </c>
+      <c r="O74">
         <f t="shared" si="7"/>
-        <v>5.2983173665480363</v>
-      </c>
-      <c r="O74">
-        <f t="shared" si="10"/>
         <v>-9.639670072226048</v>
       </c>
       <c r="P74">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>-9.6416457440900363</v>
       </c>
       <c r="Q74">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>-16.443971593130399</v>
       </c>
     </row>
@@ -24186,13 +24187,13 @@
         <v>0.77182979821430719</v>
       </c>
       <c r="C75">
-        <v>3.665301794501237E-2</v>
+        <v>4.2912593184317956E-2</v>
       </c>
       <c r="E75">
         <v>0.76465681221157666</v>
       </c>
       <c r="F75">
-        <v>2.510860785428979E-2</v>
+        <v>3.0018749794722396E-2</v>
       </c>
       <c r="I75" s="23">
         <v>400</v>
@@ -24207,19 +24208,19 @@
         <v>9.9985950620432959E-2</v>
       </c>
       <c r="N75">
+        <f t="shared" si="4"/>
+        <v>5.9914645471079817</v>
+      </c>
+      <c r="O75">
         <f t="shared" si="7"/>
-        <v>5.9914645471079817</v>
-      </c>
-      <c r="O75">
-        <f t="shared" si="10"/>
         <v>-10.333508646859304</v>
       </c>
       <c r="P75">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>-10.334496713163805</v>
       </c>
       <c r="Q75">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>-17.830277475905785</v>
       </c>
     </row>
@@ -24228,13 +24229,13 @@
         <v>0.81746383857144578</v>
       </c>
       <c r="C76">
-        <v>4.4033434041929526E-2</v>
+        <v>5.205796634946612E-2</v>
       </c>
       <c r="E76">
         <v>0.79962948867703543</v>
       </c>
       <c r="F76">
-        <v>3.0945132621299255E-2</v>
+        <v>3.7408852504360386E-2</v>
       </c>
       <c r="I76" s="23">
         <v>800</v>
@@ -24249,19 +24250,19 @@
         <v>9.9985937084897433E-2</v>
       </c>
       <c r="N76">
+        <f t="shared" si="4"/>
+        <v>6.6846117276679271</v>
+      </c>
+      <c r="O76">
         <f t="shared" si="7"/>
-        <v>6.6846117276679271</v>
-      </c>
-      <c r="O76">
-        <f t="shared" si="10"/>
         <v>-11.027302320959256</v>
       </c>
       <c r="P76">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>-11.027796616378934</v>
       </c>
       <c r="Q76">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>-19.216608436988153</v>
       </c>
     </row>
@@ -24270,13 +24271,13 @@
         <v>0.86309787892858436</v>
       </c>
       <c r="C77">
-        <v>5.2519234905881534E-2</v>
+        <v>6.2745167633707494E-2</v>
       </c>
       <c r="E77">
         <v>0.83620169068078132</v>
       </c>
       <c r="F77">
-        <v>3.7871920317316364E-2</v>
+        <v>4.6332307441570193E-2</v>
       </c>
       <c r="I77" s="23">
         <v>1600</v>
@@ -24291,19 +24292,19 @@
         <v>9.9985933701004642E-2</v>
       </c>
       <c r="N77">
+        <f t="shared" si="4"/>
+        <v>7.3777589082278725</v>
+      </c>
+      <c r="O77">
         <f t="shared" si="7"/>
-        <v>7.3777589082278725</v>
-      </c>
-      <c r="O77">
-        <f t="shared" si="10"/>
         <v>-11.721373685007848</v>
       </c>
       <c r="P77">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>-11.72162116038481</v>
       </c>
       <c r="Q77">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>-20.603057111727498</v>
       </c>
     </row>
@@ -24312,13 +24313,13 @@
         <v>0.90873191928572294</v>
       </c>
       <c r="C78">
-        <v>6.219820752566934E-2</v>
+        <v>7.5153682043186842E-2</v>
       </c>
       <c r="E78">
         <v>0.87444657481836852</v>
       </c>
       <c r="F78">
-        <v>4.6031319465519756E-2</v>
+        <v>5.7043604546948692E-2</v>
       </c>
       <c r="I78" s="23">
         <v>3200</v>
@@ -24333,19 +24334,19 @@
         <v>9.9985932855033793E-2</v>
       </c>
       <c r="N78">
+        <f t="shared" si="4"/>
+        <v>8.0709060887878188</v>
+      </c>
+      <c r="O78">
         <f t="shared" si="7"/>
-        <v>8.0709060887878188</v>
-      </c>
-      <c r="O78">
-        <f t="shared" si="10"/>
         <v>-12.416186248329156</v>
       </c>
       <c r="P78">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>-12.416310438617346</v>
       </c>
       <c r="Q78">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>-21.989960629340104</v>
       </c>
     </row>
@@ -24354,13 +24355,13 @@
         <v>0.95436595964286153</v>
       </c>
       <c r="C79">
-        <v>7.3151736536259296E-2</v>
+        <v>8.9472096137449164E-2</v>
       </c>
       <c r="E79">
         <v>0.914440643607217</v>
       </c>
       <c r="F79">
-        <v>5.5572424697602124E-2</v>
+        <v>6.9828670286039285E-2</v>
       </c>
       <c r="I79" s="23">
         <v>6400</v>
@@ -24375,19 +24376,19 @@
         <v>9.9985932643539221E-2</v>
       </c>
       <c r="N79">
+        <f t="shared" si="4"/>
+        <v>8.7640532693477624</v>
+      </c>
+      <c r="O79">
         <f t="shared" si="7"/>
-        <v>8.7640532693477624</v>
-      </c>
-      <c r="O79">
-        <f t="shared" si="10"/>
         <v>-13.112579415689835</v>
       </c>
       <c r="P79">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>-13.112642222461727</v>
       </c>
       <c r="Q79">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>-23.378721798775786</v>
       </c>
     </row>
@@ -24396,13 +24397,13 @@
         <v>1</v>
       </c>
       <c r="C80">
-        <v>8.5452614896176268E-2</v>
+        <v>0.10589778224083123</v>
       </c>
       <c r="E80">
         <v>0.95626389851714944</v>
       </c>
       <c r="F80">
-        <v>6.664946277721194E-2</v>
+        <v>8.500785722085985E-2</v>
       </c>
       <c r="I80" s="23">
         <v>10000</v>
@@ -24417,19 +24418,19 @@
         <v>9.9985932601938804E-2</v>
       </c>
       <c r="N80">
+        <f t="shared" si="4"/>
+        <v>9.2103403719761836</v>
+      </c>
+      <c r="O80">
         <f t="shared" si="7"/>
-        <v>9.2103403719761836</v>
-      </c>
-      <c r="O80">
-        <f t="shared" si="10"/>
         <v>-13.562507031781145</v>
       </c>
       <c r="P80">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>-13.562548063829137</v>
       </c>
       <c r="Q80">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>-24.275296288762792</v>
       </c>
     </row>
@@ -24438,13 +24439,13 @@
         <v>1.0456340403571385</v>
       </c>
       <c r="C81">
-        <v>9.9162994358114626E-2</v>
+        <v>0.12463682742477175</v>
       </c>
       <c r="E81">
         <v>1</v>
       </c>
       <c r="F81">
-        <v>7.9419974041638738E-2</v>
+        <v>0.10293942460487857</v>
       </c>
       <c r="I81" s="23">
         <v>100000</v>
@@ -24459,19 +24460,19 @@
         <v>9.9985932573812372E-2</v>
       </c>
       <c r="N81">
+        <f t="shared" si="4"/>
+        <v>11.512925464970229</v>
+      </c>
+      <c r="O81">
         <f t="shared" si="7"/>
-        <v>11.512925464970229</v>
-      </c>
-      <c r="O81">
-        <f t="shared" si="10"/>
         <v>-15.960408656632838</v>
       </c>
       <c r="P81">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>-15.960426514788724</v>
       </c>
       <c r="Q81">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>-28.247312649353088</v>
       </c>
     </row>
@@ -24480,13 +24481,13 @@
         <v>1.0912680807142769</v>
       </c>
       <c r="C82">
-        <v>0.11433257150786748</v>
+        <v>0.14590429840753777</v>
       </c>
       <c r="E82">
         <v>1.0457364348384068</v>
       </c>
       <c r="F82">
-        <v>9.4042853899337697E-2</v>
+        <v>0.12402365310117301</v>
       </c>
       <c r="I82" s="23">
         <v>1000000</v>
@@ -24506,13 +24507,13 @@
         <v>1.1369021210714154</v>
       </c>
       <c r="C83">
-        <v>0.13099709748356203</v>
+        <v>0.16992493102813946</v>
       </c>
       <c r="E83">
         <v>1.0935646911485417</v>
       </c>
       <c r="F83">
-        <v>0.11067633117864997</v>
+        <v>0.14870775666921668</v>
       </c>
       <c r="I83" s="18">
         <v>10000000</v>
@@ -24538,13 +24539,13 @@
         <v>1.1825361614285539</v>
       </c>
       <c r="C84">
-        <v>0.14917728584131013</v>
+        <v>0.19693432816897033</v>
       </c>
       <c r="E84">
         <v>1.1435804413868396</v>
       </c>
       <c r="F84">
-        <v>0.12947596837688324</v>
+        <v>0.1774917741908166</v>
       </c>
     </row>
     <row r="85" spans="2:17" x14ac:dyDescent="0.25">
@@ -24552,13 +24553,13 @@
         <v>1.2281702017856924</v>
       </c>
       <c r="C85">
-        <v>0.16887817417945808</v>
+        <v>0.22718074399308755</v>
       </c>
       <c r="E85">
         <v>1.1958837337268053</v>
       </c>
       <c r="F85">
-        <v>0.15059277235977586</v>
+        <v>0.21093564351626334</v>
       </c>
     </row>
     <row r="86" spans="2:17" x14ac:dyDescent="0.25">
@@ -24566,13 +24567,13 @@
         <v>1.2738042421428308</v>
       </c>
       <c r="C86">
-        <v>0.19008897231462607</v>
+        <v>0.26092752612010467</v>
       </c>
       <c r="E86">
         <v>1.2505791921887124</v>
       </c>
       <c r="F86">
-        <v>0.17417150230019462</v>
+        <v>0.24966768277215576</v>
       </c>
     </row>
     <row r="87" spans="2:17" x14ac:dyDescent="0.25">
@@ -24580,13 +24581,13 @@
         <v>1.3194382824999693</v>
       </c>
       <c r="C87">
-        <v>0.21278340462511539</v>
+        <v>0.29845628158340382</v>
       </c>
       <c r="E87">
         <v>1.307776225922519</v>
       </c>
       <c r="F87">
-        <v>0.20034925451859734</v>
+        <v>0.29439472964834912</v>
       </c>
     </row>
     <row r="88" spans="2:17" x14ac:dyDescent="0.25">
@@ -24594,13 +24595,13 @@
         <v>1.3650723228571078</v>
       </c>
       <c r="C88">
-        <v>0.23692052846567049</v>
+        <v>0.34007232285710787</v>
       </c>
       <c r="E88">
         <v>1.3675892480626419</v>
       </c>
       <c r="F88">
-        <v>0.22925439172719117</v>
+        <v>0.34591422049645959</v>
       </c>
     </row>
     <row r="89" spans="2:17" x14ac:dyDescent="0.25">
@@ -24608,13 +24609,13 @@
         <v>1.4107063632142463</v>
       </c>
       <c r="C89">
-        <v>0.26244598618463949</v>
+        <v>0.38570636321424634</v>
       </c>
       <c r="E89">
         <v>1.430137904592365</v>
       </c>
       <c r="F89">
-        <v>0.26100586773411416</v>
+        <v>0.40513790459236509</v>
       </c>
     </row>
     <row r="90" spans="2:17" x14ac:dyDescent="0.25">
@@ -24622,13 +24623,13 @@
         <v>1.4563404035713847</v>
       </c>
       <c r="C90">
-        <v>0.28929362698570843</v>
+        <v>0.43134040357138481</v>
       </c>
       <c r="E90">
         <v>1.4955473136756894</v>
       </c>
       <c r="F90">
-        <v>0.29571297904315846</v>
+        <v>0.47054731367568947</v>
       </c>
     </row>
     <row r="91" spans="2:17" x14ac:dyDescent="0.25">
@@ -24636,13 +24637,13 @@
         <v>1.5019744439285232</v>
       </c>
       <c r="C91">
-        <v>0.31738741812911953</v>
+        <v>0.47697444392852328</v>
       </c>
       <c r="E91">
         <v>1.5639483159353722</v>
       </c>
       <c r="F91">
-        <v>0.33347555336292145</v>
+        <v>0.53894831593537229</v>
       </c>
     </row>
     <row r="92" spans="2:17" x14ac:dyDescent="0.25">
@@ -24650,13 +24651,13 @@
         <v>1.5476084842856617</v>
       </c>
       <c r="C92">
-        <v>0.34664355380363482</v>
+        <v>0.52260848428566176</v>
       </c>
       <c r="E92">
         <v>1.6354777361777866</v>
       </c>
       <c r="F92">
-        <v>0.37438456333246967</v>
+        <v>0.61047773617778667</v>
       </c>
     </row>
     <row r="93" spans="2:17" x14ac:dyDescent="0.25">
@@ -24664,13 +24665,13 @@
         <v>1.5932425246428001</v>
       </c>
       <c r="C93">
-        <v>0.37697266496558052</v>
+        <v>0.56824252464280023</v>
       </c>
       <c r="E93">
         <v>1.7102786570881472</v>
       </c>
       <c r="F93">
-        <v>0.41852313329868085</v>
+        <v>0.68527865708814728</v>
       </c>
     </row>
     <row r="94" spans="2:17" x14ac:dyDescent="0.25">
@@ -24678,13 +24679,13 @@
         <v>1.6388765649999386</v>
       </c>
       <c r="C94">
-        <v>0.4082820345559563</v>
+        <v>0.6138765649999387</v>
       </c>
       <c r="E94">
         <v>1.7885007054435775</v>
       </c>
       <c r="F94">
-        <v>0.46596788913157783</v>
+        <v>0.76350070544357762</v>
       </c>
     </row>
     <row r="95" spans="2:17" x14ac:dyDescent="0.25">
@@ -24692,13 +24693,13 @@
         <v>1.6845106053570771</v>
       </c>
       <c r="C95">
-        <v>0.44047772929458862</v>
+        <v>0.65951060535707717</v>
       </c>
       <c r="E95">
         <v>1.8703003514165424</v>
       </c>
       <c r="F95">
-        <v>0.51679058697447744</v>
+        <v>0.84530035141654247</v>
       </c>
     </row>
     <row r="96" spans="2:17" x14ac:dyDescent="0.25">
@@ -24706,13 +24707,13 @@
         <v>1.7301446457142156</v>
       </c>
       <c r="C96">
-        <v>0.47346657081374954</v>
+        <v>0.70514464571421565</v>
       </c>
       <c r="E96">
         <v>1.9558412215673548</v>
       </c>
       <c r="F96">
-        <v>0.57105994728897946</v>
+        <v>0.93084122156735494</v>
       </c>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.25">
@@ -24720,13 +24721,13 @@
         <v>1.775778686071354</v>
       </c>
       <c r="C97">
-        <v>0.50715788402571471</v>
+        <v>0.75077868607135412</v>
       </c>
       <c r="E97">
         <v>2.0452944261518402</v>
       </c>
       <c r="F97">
-        <v>0.62884361596664251</v>
+        <v>1.0202944261518403</v>
       </c>
     </row>
     <row r="98" spans="2:6" x14ac:dyDescent="0.25">
@@ -24734,13 +24735,13 @@
         <v>1.8214127264284925</v>
       </c>
       <c r="C98">
-        <v>0.54146497793744064</v>
+        <v>0.79641272642849259</v>
       </c>
       <c r="E98">
         <v>2.1388389013988909</v>
       </c>
       <c r="F98">
-        <v>0.69021017462614553</v>
+        <v>1.113838901398891</v>
       </c>
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.25">
@@ -24748,13 +24749,13 @@
         <v>1.867046766785631</v>
       </c>
       <c r="C99">
-        <v>0.57630633221373484</v>
+        <v>0.84204676678563106</v>
       </c>
       <c r="E99">
         <v>2.2366617674425711</v>
       </c>
       <c r="F99">
-        <v>0.75523112710179341</v>
+        <v>1.2116617674425711</v>
       </c>
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.25">
@@ -24762,13 +24763,13 @@
         <v>1.9126808071427694</v>
       </c>
       <c r="C100">
-        <v>0.61160648032397946</v>
+        <v>0.88768080714276953</v>
       </c>
       <c r="E100">
         <v>2.3389587026247645</v>
       </c>
       <c r="F100">
-        <v>0.82398279784266037</v>
+        <v>1.3139587026247646</v>
       </c>
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.25">
@@ -24776,13 +24777,13 @@
         <v>1.9583148474999079</v>
       </c>
       <c r="C101">
-        <v>0.64729659596212474</v>
+        <v>0.93331484749990801</v>
       </c>
       <c r="E101">
         <v>2.4459343349170868</v>
       </c>
       <c r="F101">
-        <v>0.89654808953802423</v>
+        <v>1.4209343349170869</v>
       </c>
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.25">
@@ -24790,13 +24791,13 @@
         <v>2.0039488878570464</v>
       </c>
       <c r="C102">
-        <v>0.68331480275363932</v>
+        <v>0.97894888785704648</v>
       </c>
       <c r="E102">
         <v>2.5578026512450442</v>
       </c>
       <c r="F102">
-        <v>0.97301806069283969</v>
+        <v>1.5328026512450443</v>
       </c>
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.25">
@@ -24804,13 +24805,13 @@
         <v>2.0495829282141851</v>
       </c>
       <c r="C103">
-        <v>0.71960623751559416</v>
+        <v>1.0245829282141852</v>
       </c>
       <c r="E103">
         <v>2.6747874255332178</v>
       </c>
       <c r="F103">
-        <v>1.0534932980032572</v>
+        <v>1.6497874255332179</v>
       </c>
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.25">
@@ -24818,13 +24819,13 @@
         <v>2.0952169685713238</v>
       </c>
       <c r="C104">
-        <v>0.75612290429013207</v>
+        <v>1.0702169685713239</v>
       </c>
       <c r="E104">
         <v>2.797122666327708</v>
       </c>
       <c r="F104">
-        <v>1.138085072205703</v>
+        <v>1.7721226663277081</v>
       </c>
     </row>
     <row r="105" spans="2:6" x14ac:dyDescent="0.25">
@@ -24832,13 +24833,13 @@
         <v>2.1408510089284625</v>
       </c>
       <c r="C105">
-        <v>0.79282336008613086</v>
+        <v>1.1158510089284626</v>
       </c>
       <c r="E105">
         <v>2.9250530848912364</v>
       </c>
       <c r="F105">
-        <v>1.2269162787237018</v>
+        <v>1.9000530848912365</v>
       </c>
     </row>
     <row r="106" spans="2:6" x14ac:dyDescent="0.25">
@@ -24846,13 +24847,13 @@
         <v>2.1864850492856012</v>
       </c>
       <c r="C106">
-        <v>0.82967227403373767</v>
+        <v>1.1614850492856013</v>
       </c>
       <c r="E106">
         <v>3.0588345847072458</v>
       </c>
       <c r="F106">
-        <v>1.3201221752481598</v>
+        <v>2.0338345847072459</v>
       </c>
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.25">
@@ -24860,13 +24861,13 @@
         <v>2.2321190896427399</v>
       </c>
       <c r="C107">
-        <v>0.86663989994694446</v>
+        <v>1.20711908964274</v>
       </c>
       <c r="E107">
         <v>3.1987347733721743</v>
       </c>
       <c r="F107">
-        <v>1.4178509369255994</v>
+        <v>2.1737347733721744</v>
       </c>
     </row>
     <row r="108" spans="2:6" x14ac:dyDescent="0.25">
@@ -24874,13 +24875,13 @@
         <v>2.2777531299998786</v>
       </c>
       <c r="C108">
-        <v>0.90370149866803362</v>
+        <v>1.2527531299998786</v>
       </c>
       <c r="E108">
         <v>3.3450334978998568</v>
       </c>
       <c r="F108">
-        <v>1.52026405589442</v>
+        <v>2.3200334978998569</v>
       </c>
     </row>
     <row r="109" spans="2:6" x14ac:dyDescent="0.25">
@@ -24888,13 +24889,13 @@
         <v>2.3233871703570173</v>
       </c>
       <c r="C109">
-        <v>0.94083674163670572</v>
+        <v>1.2983871703570173</v>
       </c>
       <c r="E109">
         <v>3.4980234045088423</v>
       </c>
       <c r="F109">
-        <v>1.6275366155163951</v>
+        <v>2.4730234045088424</v>
       </c>
     </row>
     <row r="110" spans="2:6" x14ac:dyDescent="0.25">
@@ -24902,13 +24903,13 @@
         <v>2.3690212107141559</v>
       </c>
       <c r="C110">
-        <v>0.97802912146682874</v>
+        <v>1.344021210714156</v>
       </c>
       <c r="E110">
         <v>3.6580105240123832</v>
       </c>
       <c r="F110">
-        <v>1.7398574709912724</v>
+        <v>2.6330105240123833</v>
       </c>
     </row>
     <row r="111" spans="2:6" x14ac:dyDescent="0.25">
@@ -24916,13 +24917,13 @@
         <v>2.4146552510712946</v>
       </c>
       <c r="C111">
-        <v>1.015265389439963</v>
+        <v>1.3896552510712947</v>
       </c>
       <c r="E111">
         <v>3.8253148839820823</v>
       </c>
       <c r="F111">
-        <v>1.8574293674412745</v>
+        <v>2.8003148839820824</v>
       </c>
     </row>
     <row r="112" spans="2:6" x14ac:dyDescent="0.25">
@@ -24930,13 +24931,13 @@
         <v>2.4602892914284333</v>
       </c>
       <c r="C112">
-        <v>1.0525350341580735</v>
+        <v>1.4352892914284334</v>
       </c>
       <c r="E112">
         <v>4.0002711489097171</v>
       </c>
       <c r="F112">
-        <v>1.9804690244145888</v>
+        <v>2.9752711489097172</v>
       </c>
     </row>
     <row r="113" spans="2:6" x14ac:dyDescent="0.25">
@@ -24944,13 +24945,13 @@
         <v>2.505923331785572</v>
       </c>
       <c r="C113">
-        <v>1.0898298104507356</v>
+        <v>1.4809233317855721</v>
       </c>
       <c r="E113">
         <v>4.1832292896477856</v>
       </c>
       <c r="F113">
-        <v>2.1092072125218473</v>
+        <v>3.1582292896477857</v>
       </c>
     </row>
     <row r="114" spans="2:6" x14ac:dyDescent="0.25">
@@ -24958,13 +24959,13 @@
         <v>2.5515573721427107</v>
       </c>
       <c r="C114">
-        <v>1.1271433232083081</v>
+        <v>1.5265573721427108</v>
       </c>
       <c r="E114">
         <v>4.3745552834678767</v>
       </c>
       <c r="F114">
-        <v>2.2438888440174964</v>
+        <v>3.3495552834678768</v>
       </c>
     </row>
     <row r="115" spans="2:6" x14ac:dyDescent="0.25">
@@ -24972,13 +24973,13 @@
         <v>2.5971914124998494</v>
       </c>
       <c r="C115">
-        <v>1.1644706672151548</v>
+        <v>1.5721914124998495</v>
       </c>
       <c r="E115">
         <v>4.5746318461372146</v>
       </c>
       <c r="F115">
-        <v>2.3847730949575081</v>
+        <v>3.5496318461372147</v>
       </c>
     </row>
     <row r="116" spans="2:6" x14ac:dyDescent="0.25">
@@ -24986,13 +24987,13 @@
         <v>2.6428254528569881</v>
       </c>
       <c r="C116">
-        <v>1.2018081213053515</v>
+        <v>1.6178254528569882</v>
       </c>
       <c r="E116">
         <v>4.7838591974777698</v>
       </c>
       <c r="F116">
-        <v>2.5321335724307148</v>
+        <v>3.7588591974777699</v>
       </c>
     </row>
     <row r="117" spans="2:6" x14ac:dyDescent="0.25">
@@ -25000,13 +25001,13 @@
         <v>2.6884594932141268</v>
       </c>
       <c r="C117">
-        <v>1.2391528932114451</v>
+        <v>1.6634594932141269</v>
       </c>
       <c r="E117">
         <v>5.002655861939326</v>
       </c>
       <c r="F117">
-        <v>2.6862585365235878</v>
+        <v>3.9776558619393261</v>
       </c>
     </row>
     <row r="118" spans="2:6" x14ac:dyDescent="0.25">
@@ -25014,13 +25015,13 @@
         <v>2.7340935335712655</v>
       </c>
       <c r="C118">
-        <v>1.2765029102347039</v>
+        <v>1.7090935335712656</v>
       </c>
       <c r="E118">
         <v>5.2314595057878881</v>
       </c>
       <c r="F118">
-        <v>2.8474511833071321</v>
+        <v>4.2064595057878886</v>
       </c>
     </row>
     <row r="119" spans="2:6" x14ac:dyDescent="0.25">
@@ -25028,13 +25029,13 @@
         <v>2.7797275739284042</v>
       </c>
       <c r="C119">
-        <v>1.3138566502167401</v>
+        <v>1.7547275739284043</v>
       </c>
       <c r="E119">
         <v>5.470727812584121</v>
       </c>
       <c r="F119">
-        <v>3.0160299923286007</v>
+        <v>4.4457278125841206</v>
       </c>
     </row>
     <row r="120" spans="2:6" x14ac:dyDescent="0.25">
@@ -25042,13 +25043,13 @@
         <v>2.8253616142855429</v>
       </c>
       <c r="C120">
-        <v>1.3512130071118473</v>
+        <v>1.800361614285543</v>
       </c>
       <c r="E120">
         <v>5.7209393987030346</v>
       </c>
       <c r="F120">
-        <v>3.1923291398839462</v>
+        <v>4.6959393987030342</v>
       </c>
     </row>
     <row r="121" spans="2:6" x14ac:dyDescent="0.25">
@@ -25056,13 +25057,13 @@
         <v>2.8709956546426816</v>
       </c>
       <c r="C121">
-        <v>1.3885711856241185</v>
+        <v>1.8459956546426817</v>
       </c>
       <c r="E121">
         <v>5.9825947707262914</v>
       </c>
       <c r="F121">
-        <v>3.3766989777221692</v>
+        <v>4.957594770726292</v>
       </c>
     </row>
     <row r="122" spans="2:6" x14ac:dyDescent="0.25">
@@ -25070,13 +25071,13 @@
         <v>2.9166296949998203</v>
       </c>
       <c r="C122">
-        <v>1.425930619771657</v>
+        <v>1.8916296949998204</v>
       </c>
       <c r="E122">
         <v>6.2562173266222079</v>
       </c>
       <c r="F122">
-        <v>3.5695065757382229</v>
+        <v>5.2312173266222075</v>
       </c>
     </row>
     <row r="123" spans="2:6" x14ac:dyDescent="0.25">
@@ -25084,13 +25085,13 @@
         <v>2.962263735356959</v>
       </c>
       <c r="C123">
-        <v>1.4632909107770746</v>
+        <v>1.9372637353569591</v>
       </c>
       <c r="E123">
         <v>6.5423544027161773</v>
       </c>
       <c r="F123">
-        <v>3.7711363265690325</v>
+        <v>5.5173544027161778</v>
       </c>
     </row>
     <row r="124" spans="2:6" x14ac:dyDescent="0.25">
@@ -25098,13 +25099,13 @@
         <v>3.0078977757140977</v>
       </c>
       <c r="C124">
-        <v>1.5006517802821533</v>
+        <v>1.9828977757140978</v>
       </c>
       <c r="E124">
         <v>6.8415783685457701</v>
       </c>
       <c r="F124">
-        <v>3.9819906097291895</v>
+        <v>5.8165783685457697</v>
       </c>
     </row>
     <row r="125" spans="2:6" x14ac:dyDescent="0.25">
@@ -25112,13 +25113,13 @@
         <v>3.0535318160712364</v>
       </c>
       <c r="C125">
-        <v>1.5380130354863633</v>
+        <v>2.0285318160712364</v>
       </c>
       <c r="E125">
         <v>7.1544877717906186</v>
       </c>
       <c r="F125">
-        <v>4.2024905129155545</v>
+        <v>6.1294877717906182</v>
       </c>
     </row>
     <row r="126" spans="2:6" x14ac:dyDescent="0.25">
@@ -25126,13 +25127,13 @@
         <v>3.0991658564283751</v>
       </c>
       <c r="C126">
-        <v>1.5753745433712554</v>
+        <v>2.0741658564283751</v>
       </c>
       <c r="E126">
         <v>7.4817085355672992</v>
       </c>
       <c r="F126">
-        <v>4.4330766082824065</v>
+        <v>6.4567085355672997</v>
       </c>
     </row>
     <row r="127" spans="2:6" x14ac:dyDescent="0.25">
@@ -25140,13 +25141,13 @@
         <v>3.1447998967855137</v>
       </c>
       <c r="C127">
-        <v>1.6127362116655914</v>
+        <v>2.1197998967855138</v>
       </c>
       <c r="E127">
         <v>7.8238952104842276</v>
       </c>
       <c r="F127">
-        <v>4.6742097817537278</v>
+        <v>6.7988952104842273</v>
       </c>
     </row>
     <row r="128" spans="2:6" x14ac:dyDescent="0.25">
@@ -25154,13 +25155,13 @@
         <v>3.1904339371426524</v>
       </c>
       <c r="C128">
-        <v>1.6500979746086595</v>
+        <v>2.1654339371426525</v>
       </c>
       <c r="E128">
         <v>8.1817322839610611</v>
       </c>
       <c r="F128">
-        <v>4.9263721137127341</v>
+        <v>7.1567322839610608</v>
       </c>
     </row>
     <row r="129" spans="2:6" x14ac:dyDescent="0.25">
@@ -25168,13 +25169,13 @@
         <v>3.2360679774997911</v>
       </c>
       <c r="C129">
-        <v>1.6874597818655002</v>
+        <v>2.2110679774997912</v>
       </c>
       <c r="E129">
         <v>8.5559355494317391</v>
       </c>
       <c r="F129">
-        <v>5.1900678096080082</v>
+        <v>7.5309355494317387</v>
       </c>
     </row>
     <row r="130" spans="2:6" x14ac:dyDescent="0.25">
@@ -25188,7 +25189,7 @@
         <v>8.9472535381699316</v>
       </c>
       <c r="F130">
-        <v>5.4658241790472122</v>
+        <v>7.9222535381699313</v>
       </c>
     </row>
     <row r="131" spans="2:6" x14ac:dyDescent="0.25">
@@ -30484,14 +30485,14 @@
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="10">
         <f ca="1">NOW()</f>
-        <v>44932.441240046297</v>
+        <v>44932.47860289352</v>
       </c>
       <c r="B25" t="s">
         <v>41</v>
       </c>
       <c r="C25" s="11">
         <f ca="1">IF(B28&lt;&gt;"",NOW()-A25)</f>
-        <v>0</v>
+        <v>3.4722324926406145E-7</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
@@ -35034,11 +35035,11 @@
         <v>2</v>
       </c>
       <c r="H38" s="3">
-        <f t="shared" ref="H38" si="9">B38</f>
+        <f>B38</f>
         <v>20</v>
       </c>
       <c r="I38" s="3">
-        <f t="shared" ref="I38" si="10">F38</f>
+        <f>F38</f>
         <v>2</v>
       </c>
     </row>
@@ -43971,7 +43972,7 @@
       </c>
       <c r="L21" s="2">
         <f ca="1">SUMPRODUCT(L23:L73,F23:F73)</f>
-        <v>1.1238549491005943E-2</v>
+        <v>9.9307004697721246E-3</v>
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
@@ -44004,15 +44005,15 @@
       </c>
       <c r="C23">
         <f ca="1">0.1*(RAND()-0.5)</f>
-        <v>4.5148897258016331E-2</v>
+        <v>4.6421481496177155E-2</v>
       </c>
       <c r="D23">
         <f ca="1">0.1*(RAND()-0.5)</f>
-        <v>4.0006471118302515E-2</v>
+        <v>6.0761237118626471E-3</v>
       </c>
       <c r="E23">
         <f ca="1">$C$6*RAND()</f>
-        <v>5.9632193608189325E-2</v>
+        <v>1.4136695680618629E-2</v>
       </c>
       <c r="F23">
         <f>MAX(0,B23-$F$16)</f>
@@ -44020,7 +44021,7 @@
       </c>
       <c r="H23">
         <f t="array" aca="1" ref="H23:H73" ca="1">_xll.xFd1d(C2,B23:B73,C23:C73,D23:D73,E23:E73,F23:F73,C16:C20)</f>
-        <v>3.1723885298974189E-10</v>
+        <v>1.4030987182325873E-11</v>
       </c>
       <c r="K23">
         <f>IF(ABS(B23-$C$3)&lt;0.0000000001,1,0)</f>
@@ -44028,11 +44029,11 @@
       </c>
       <c r="L23">
         <f t="array" aca="1" ref="L23:L73" ca="1">_xll.xFd1d($C$2,B23:B73,C23:C73,D23:D73,E23:E73,K23:K73,L16:L20)</f>
-        <v>1.1216876847914208E-8</v>
+        <v>3.4139673197889342E-11</v>
       </c>
       <c r="N23">
         <f ca="1">SUM(L23:L73)</f>
-        <v>1.0023738066813113</v>
+        <v>0.9980216680215469</v>
       </c>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
@@ -44042,15 +44043,15 @@
       </c>
       <c r="C24">
         <f t="shared" ref="C24:D55" ca="1" si="1">0.1*(RAND()-0.5)</f>
-        <v>-3.3011589463640433E-2</v>
+        <v>5.6868963360606657E-3</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="1"/>
-        <v>3.8223048490300837E-2</v>
+        <v>-2.2621063679647904E-2</v>
       </c>
       <c r="E24">
         <f t="shared" ref="E24:E73" ca="1" si="2">$C$6*RAND()</f>
-        <v>5.4787936726610975E-2</v>
+        <v>2.9545899441226556E-2</v>
       </c>
       <c r="F24">
         <f t="shared" ref="F24:F73" si="3">MAX(0,B24-$F$16)</f>
@@ -44058,7 +44059,7 @@
       </c>
       <c r="H24">
         <f ca="1"/>
-        <v>6.38006558930136E-10</v>
+        <v>1.0747096739588938E-10</v>
       </c>
       <c r="K24">
         <f t="shared" ref="K24:K73" si="4">IF(ABS(B24-$C$3)&lt;0.0000000001,1,0)</f>
@@ -44066,7 +44067,7 @@
       </c>
       <c r="L24">
         <f ca="1"/>
-        <v>6.0131366540029623E-9</v>
+        <v>2.3976070450676084E-11</v>
       </c>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
@@ -44076,15 +44077,15 @@
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="1"/>
-        <v>6.0167987542200548E-3</v>
+        <v>4.5254605006790162E-2</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.9281135269473993E-2</v>
+        <v>7.3835376465898779E-3</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="2"/>
-        <v>4.0022227459881148E-2</v>
+        <v>4.2437834409992506E-2</v>
       </c>
       <c r="F25">
         <f t="shared" si="3"/>
@@ -44092,7 +44093,7 @@
       </c>
       <c r="H25">
         <f ca="1"/>
-        <v>1.0280695731406645E-9</v>
+        <v>3.4796604573847723E-10</v>
       </c>
       <c r="K25">
         <f t="shared" si="4"/>
@@ -44100,7 +44101,7 @@
       </c>
       <c r="L25">
         <f ca="1"/>
-        <v>1.8361738614301574E-8</v>
+        <v>3.7628050549072418E-11</v>
       </c>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
@@ -44110,15 +44111,15 @@
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.2671127795593483E-2</v>
+        <v>3.2839540799848042E-2</v>
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="1"/>
-        <v>4.1692789389766532E-2</v>
+        <v>-1.2101059309096441E-4</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="2"/>
-        <v>3.3776725502168918E-2</v>
+        <v>9.8818446559762914E-3</v>
       </c>
       <c r="F26">
         <f t="shared" si="3"/>
@@ -44126,7 +44127,7 @@
       </c>
       <c r="H26">
         <f ca="1"/>
-        <v>2.0262752455313651E-9</v>
+        <v>7.1470716851111637E-10</v>
       </c>
       <c r="K26">
         <f t="shared" si="4"/>
@@ -44134,7 +44135,7 @@
       </c>
       <c r="L26">
         <f ca="1"/>
-        <v>5.081093147658038E-8</v>
+        <v>1.5049643013585491E-9</v>
       </c>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
@@ -44144,15 +44145,15 @@
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.2390294765652088E-2</v>
+        <v>-1.4759976700567213E-2</v>
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="1"/>
-        <v>2.5000032240466642E-2</v>
+        <v>2.3779832366883372E-2</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="2"/>
-        <v>4.0402897101956464E-2</v>
+        <v>7.1856125254146516E-2</v>
       </c>
       <c r="F27">
         <f t="shared" si="3"/>
@@ -44160,7 +44161,7 @@
       </c>
       <c r="H27">
         <f ca="1"/>
-        <v>3.4151017490335706E-9</v>
+        <v>6.9938129514260292E-9</v>
       </c>
       <c r="K27">
         <f t="shared" si="4"/>
@@ -44168,7 +44169,7 @@
       </c>
       <c r="L27">
         <f ca="1"/>
-        <v>1.0359612931229214E-7</v>
+        <v>2.7852265639909192E-10</v>
       </c>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
@@ -44178,15 +44179,15 @@
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.0641419219085655E-2</v>
+        <v>-3.4920916377837077E-2</v>
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.3278519143551852E-2</v>
+        <v>4.7922214236158805E-2</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="2"/>
-        <v>8.4614221299218861E-2</v>
+        <v>2.9281423738273849E-2</v>
       </c>
       <c r="F28">
         <f t="shared" si="3"/>
@@ -44194,7 +44195,7 @@
       </c>
       <c r="H28">
         <f ca="1"/>
-        <v>5.7555365037338543E-9</v>
+        <v>1.3731888264222173E-8</v>
       </c>
       <c r="K28">
         <f t="shared" si="4"/>
@@ -44202,7 +44203,7 @@
       </c>
       <c r="L28">
         <f ca="1"/>
-        <v>4.6391760188750333E-8</v>
+        <v>3.5965553068735764E-9</v>
       </c>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
@@ -44212,15 +44213,15 @@
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="1"/>
-        <v>-8.0830936388307188E-3</v>
+        <v>-9.3635045647419979E-3</v>
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.1023310420846328E-2</v>
+        <v>-8.0481690085266629E-3</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="2"/>
-        <v>6.7712726031316922E-2</v>
+        <v>5.3179352268494108E-2</v>
       </c>
       <c r="F29">
         <f t="shared" si="3"/>
@@ -44228,7 +44229,7 @@
       </c>
       <c r="H29">
         <f ca="1"/>
-        <v>9.0171120423075139E-9</v>
+        <v>2.2910442926534106E-8</v>
       </c>
       <c r="K29">
         <f t="shared" si="4"/>
@@ -44236,7 +44237,7 @@
       </c>
       <c r="L29">
         <f ca="1"/>
-        <v>9.9965119546854943E-8</v>
+        <v>3.6453739024502444E-9</v>
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
@@ -44246,15 +44247,15 @@
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.2518881006024338E-2</v>
+        <v>-3.4601557866152176E-2</v>
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.5920655962210562E-2</v>
+        <v>-4.9001023237916557E-3</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="2"/>
-        <v>8.2838241081513136E-2</v>
+        <v>3.7408760145068977E-2</v>
       </c>
       <c r="F30">
         <f t="shared" si="3"/>
@@ -44262,7 +44263,7 @@
       </c>
       <c r="H30">
         <f ca="1"/>
-        <v>1.4290199712532458E-8</v>
+        <v>3.9077171944574077E-8</v>
       </c>
       <c r="K30">
         <f t="shared" si="4"/>
@@ -44270,7 +44271,7 @@
       </c>
       <c r="L30">
         <f ca="1"/>
-        <v>9.8416744884706867E-8</v>
+        <v>1.174288849059075E-8</v>
       </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
@@ -44280,15 +44281,15 @@
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.2085012832350063E-2</v>
+        <v>3.0709191247763556E-2</v>
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.1596335207032848E-2</v>
+        <v>3.4985581398767722E-2</v>
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="2"/>
-        <v>3.3019008328303255E-2</v>
+        <v>5.5588785426253257E-2</v>
       </c>
       <c r="F31">
         <f t="shared" si="3"/>
@@ -44296,7 +44297,7 @@
       </c>
       <c r="H31">
         <f ca="1"/>
-        <v>2.1618239261661887E-8</v>
+        <v>7.8521967917072546E-8</v>
       </c>
       <c r="K31">
         <f t="shared" si="4"/>
@@ -44304,7 +44305,7 @@
       </c>
       <c r="L31">
         <f ca="1"/>
-        <v>7.7271908937693816E-7</v>
+        <v>1.0686001848602535E-8</v>
       </c>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
@@ -44314,15 +44315,15 @@
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0402999753015875E-2</v>
+        <v>-3.3186163806087077E-3</v>
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="1"/>
-        <v>3.6322833590963978E-2</v>
+        <v>2.1368033121945174E-2</v>
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="2"/>
-        <v>6.403506808200092E-2</v>
+        <v>6.1170938975847661E-2</v>
       </c>
       <c r="F32">
         <f t="shared" si="3"/>
@@ -44330,7 +44331,7 @@
       </c>
       <c r="H32">
         <f ca="1"/>
-        <v>4.6320113075741276E-8</v>
+        <v>1.2738668804046285E-7</v>
       </c>
       <c r="K32">
         <f t="shared" si="4"/>
@@ -44338,7 +44339,7 @@
       </c>
       <c r="L32">
         <f ca="1"/>
-        <v>4.4021337486069125E-7</v>
+        <v>1.7558076756716317E-8</v>
       </c>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.25">
@@ -44348,15 +44349,15 @@
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.7044808355870054E-2</v>
+        <v>2.1084443984415738E-2</v>
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="1"/>
-        <v>1.6503454172815957E-3</v>
+        <v>-4.0142152702006689E-2</v>
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="2"/>
-        <v>6.0456359777091143E-2</v>
+        <v>7.0774498927156676E-2</v>
       </c>
       <c r="F33">
         <f t="shared" si="3"/>
@@ -44364,7 +44365,7 @@
       </c>
       <c r="H33">
         <f ca="1"/>
-        <v>7.5001236004133435E-8</v>
+        <v>1.9566546338934127E-7</v>
       </c>
       <c r="K33">
         <f t="shared" si="4"/>
@@ -44372,7 +44373,7 @@
       </c>
       <c r="L33">
         <f ca="1"/>
-        <v>9.4134875244150419E-7</v>
+        <v>1.9346763978982309E-8</v>
       </c>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.25">
@@ -44382,15 +44383,15 @@
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.4612098815567864E-2</v>
+        <v>2.8389026900903936E-2</v>
       </c>
       <c r="D34">
         <f t="shared" ca="1" si="1"/>
-        <v>4.9411738985860668E-2</v>
+        <v>8.2215426448707391E-4</v>
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="2"/>
-        <v>7.1013518785364591E-2</v>
+        <v>5.9978120951331121E-2</v>
       </c>
       <c r="F34">
         <f t="shared" si="3"/>
@@ -44398,7 +44399,7 @@
       </c>
       <c r="H34">
         <f ca="1"/>
-        <v>1.1954433718699587E-7</v>
+        <v>3.0630266412495341E-7</v>
       </c>
       <c r="K34">
         <f t="shared" si="4"/>
@@ -44406,7 +44407,7 @@
       </c>
       <c r="L34">
         <f ca="1"/>
-        <v>1.0972799304888173E-6</v>
+        <v>4.217089587244791E-8</v>
       </c>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.25">
@@ -44416,15 +44417,15 @@
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="1"/>
-        <v>4.6433262752778842E-2</v>
+        <v>-2.1028175252581983E-2</v>
       </c>
       <c r="D35">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.9064776964866802E-2</v>
+        <v>3.1915958809180876E-2</v>
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="2"/>
-        <v>2.0202385339630105E-2</v>
+        <v>7.5628136338023969E-2</v>
       </c>
       <c r="F35">
         <f t="shared" si="3"/>
@@ -44432,7 +44433,7 @@
       </c>
       <c r="H35">
         <f ca="1"/>
-        <v>1.7250852769648812E-7</v>
+        <v>4.8472469408813663E-7</v>
       </c>
       <c r="K35">
         <f t="shared" si="4"/>
@@ -44440,7 +44441,7 @@
       </c>
       <c r="L35">
         <f ca="1"/>
-        <v>9.6519162668097663E-6</v>
+        <v>4.2165444940014232E-8</v>
       </c>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.25">
@@ -44450,15 +44451,15 @@
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="1"/>
-        <v>2.9018112130139686E-2</v>
+        <v>2.4082999218684467E-2</v>
       </c>
       <c r="D36">
         <f t="shared" ca="1" si="1"/>
-        <v>8.0332062662634932E-3</v>
+        <v>7.3342898451640437E-3</v>
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="2"/>
-        <v>5.3122802236086411E-2</v>
+        <v>2.6949828371909845E-2</v>
       </c>
       <c r="F36">
         <f t="shared" si="3"/>
@@ -44466,7 +44467,7 @@
       </c>
       <c r="H36">
         <f ca="1"/>
-        <v>6.4297213188854026E-7</v>
+        <v>7.0590447667031861E-7</v>
       </c>
       <c r="K36">
         <f t="shared" si="4"/>
@@ -44474,7 +44475,7 @@
       </c>
       <c r="L36">
         <f ca="1"/>
-        <v>5.2028161044879396E-6</v>
+        <v>5.3754088075935678E-7</v>
       </c>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.25">
@@ -44484,15 +44485,15 @@
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="1"/>
-        <v>-9.1234508379781417E-3</v>
+        <v>4.2961117401383669E-2</v>
       </c>
       <c r="D37">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.7890686183880723E-2</v>
+        <v>3.7789769700484747E-2</v>
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="2"/>
-        <v>5.6150024901059609E-2</v>
+        <v>5.2901562173472853E-2</v>
       </c>
       <c r="F37">
         <f t="shared" si="3"/>
@@ -44500,7 +44501,7 @@
       </c>
       <c r="H37">
         <f ca="1"/>
-        <v>1.2617990334183802E-6</v>
+        <v>1.5407069004901864E-6</v>
       </c>
       <c r="K37">
         <f t="shared" si="4"/>
@@ -44508,7 +44509,7 @@
       </c>
       <c r="L37">
         <f ca="1"/>
-        <v>8.674797944909514E-6</v>
+        <v>3.6597583980964819E-7</v>
       </c>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.25">
@@ -44518,15 +44519,15 @@
       </c>
       <c r="C38">
         <f t="shared" ca="1" si="1"/>
-        <v>1.8086214859423834E-2</v>
+        <v>7.6778643980169427E-3</v>
       </c>
       <c r="D38">
         <f t="shared" ca="1" si="1"/>
-        <v>3.0731105531670733E-2</v>
+        <v>1.2869363188717054E-2</v>
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="2"/>
-        <v>7.5394386952492717E-2</v>
+        <v>1.5665771044068456E-2</v>
       </c>
       <c r="F38">
         <f t="shared" si="3"/>
@@ -44534,7 +44535,7 @@
       </c>
       <c r="H38">
         <f ca="1"/>
-        <v>2.2702959854264614E-6</v>
+        <v>2.5484974135927694E-6</v>
       </c>
       <c r="K38">
         <f t="shared" si="4"/>
@@ -44542,7 +44543,7 @@
       </c>
       <c r="L38">
         <f ca="1"/>
-        <v>8.6571219765711558E-6</v>
+        <v>8.7674995559354781E-6</v>
       </c>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.25">
@@ -44552,15 +44553,15 @@
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="1"/>
-        <v>1.9302155877850925E-2</v>
+        <v>3.0859569230406073E-2</v>
       </c>
       <c r="D39">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.5995698041537249E-3</v>
+        <v>1.8171719314091141E-2</v>
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="2"/>
-        <v>2.5597698917754808E-2</v>
+        <v>1.6030473396246282E-2</v>
       </c>
       <c r="F39">
         <f t="shared" si="3"/>
@@ -44568,7 +44569,7 @@
       </c>
       <c r="H39">
         <f ca="1"/>
-        <v>3.4700323044859209E-6</v>
+        <v>7.1030380453775855E-6</v>
       </c>
       <c r="K39">
         <f t="shared" si="4"/>
@@ -44576,7 +44577,7 @@
       </c>
       <c r="L39">
         <f ca="1"/>
-        <v>1.1154121326736085E-4</v>
+        <v>4.7812496337440456E-5</v>
       </c>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.25">
@@ -44586,15 +44587,15 @@
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="1"/>
-        <v>3.0073982129316137E-2</v>
+        <v>-4.7131702816308234E-2</v>
       </c>
       <c r="D40">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.6520415243554796E-2</v>
+        <v>-2.552661635581388E-2</v>
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="2"/>
-        <v>8.5061749592682936E-2</v>
+        <v>9.8633301980174004E-2</v>
       </c>
       <c r="F40">
         <f t="shared" si="3"/>
@@ -44602,7 +44603,7 @@
       </c>
       <c r="H40">
         <f ca="1"/>
-        <v>9.0952881156774444E-6</v>
+        <v>1.8219352429818347E-5</v>
       </c>
       <c r="K40">
         <f t="shared" si="4"/>
@@ -44610,7 +44611,7 @@
       </c>
       <c r="L40">
         <f ca="1"/>
-        <v>2.4667653103236127E-5</v>
+        <v>7.4310334491085475E-6</v>
       </c>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.25">
@@ -44620,15 +44621,15 @@
       </c>
       <c r="C41">
         <f t="shared" ca="1" si="1"/>
-        <v>-5.0697669353056418E-3</v>
+        <v>3.0225650821358266E-2</v>
       </c>
       <c r="D41">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.5726177896365362E-2</v>
+        <v>-2.4386802605416636E-2</v>
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="2"/>
-        <v>7.262538764631675E-2</v>
+        <v>2.0806750017485921E-2</v>
       </c>
       <c r="F41">
         <f t="shared" si="3"/>
@@ -44636,7 +44637,7 @@
       </c>
       <c r="H41">
         <f ca="1"/>
-        <v>1.6146100892553454E-5</v>
+        <v>3.1399594413484751E-5</v>
       </c>
       <c r="K41">
         <f t="shared" si="4"/>
@@ -44644,7 +44645,7 @@
       </c>
       <c r="L41">
         <f ca="1"/>
-        <v>5.2904849445241604E-5</v>
+        <v>1.3532861929305164E-4</v>
       </c>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.25">
@@ -44654,15 +44655,15 @@
       </c>
       <c r="C42">
         <f t="shared" ca="1" si="1"/>
-        <v>2.5778898708814627E-2</v>
+        <v>-4.6618961293112653E-2</v>
       </c>
       <c r="D42">
         <f t="shared" ca="1" si="1"/>
-        <v>3.6397841575343316E-3</v>
+        <v>1.7897777788042423E-2</v>
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="2"/>
-        <v>6.0973649088069015E-2</v>
+        <v>6.1452769563320464E-3</v>
       </c>
       <c r="F42">
         <f t="shared" si="3"/>
@@ -44670,7 +44671,7 @@
       </c>
       <c r="H42">
         <f ca="1"/>
-        <v>2.6597930190667361E-5</v>
+        <v>1.1789108862499452E-4</v>
       </c>
       <c r="K42">
         <f t="shared" si="4"/>
@@ -44678,7 +44679,7 @@
       </c>
       <c r="L42">
         <f ca="1"/>
-        <v>1.2364262468690231E-4</v>
+        <v>5.8246813078402654E-3</v>
       </c>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.25">
@@ -44688,15 +44689,15 @@
       </c>
       <c r="C43">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.2856489958207019E-2</v>
+        <v>3.8074895685166414E-2</v>
       </c>
       <c r="D43">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.3856583883313883E-2</v>
+        <v>4.1418243663994929E-2</v>
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="2"/>
-        <v>1.0750991313794046E-2</v>
+        <v>1.7644624051152226E-2</v>
       </c>
       <c r="F43">
         <f t="shared" si="3"/>
@@ -44704,7 +44705,7 @@
       </c>
       <c r="H43">
         <f ca="1"/>
-        <v>4.2498693592209978E-5</v>
+        <v>3.6169980314195837E-4</v>
       </c>
       <c r="K43">
         <f t="shared" si="4"/>
@@ -44712,7 +44713,7 @@
       </c>
       <c r="L43">
         <f ca="1"/>
-        <v>9.446794207008893E-4</v>
+        <v>2.2714471022918209E-2</v>
       </c>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.25">
@@ -44722,15 +44723,15 @@
       </c>
       <c r="C44">
         <f t="shared" ca="1" si="1"/>
-        <v>3.3276350107558271E-2</v>
+        <v>2.9581938210144012E-2</v>
       </c>
       <c r="D44">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.6471026904212507E-2</v>
+        <v>4.1797047132136202E-2</v>
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="2"/>
-        <v>5.7958295034838937E-2</v>
+        <v>4.2589169962064646E-2</v>
       </c>
       <c r="F44">
         <f t="shared" si="3"/>
@@ -44738,7 +44739,7 @@
       </c>
       <c r="H44">
         <f ca="1"/>
-        <v>4.4475622298493291E-4</v>
+        <v>6.8460985260610137E-4</v>
       </c>
       <c r="K44">
         <f t="shared" si="4"/>
@@ -44746,7 +44747,7 @@
       </c>
       <c r="L44">
         <f ca="1"/>
-        <v>3.0979056931209286E-4</v>
+        <v>2.7013993659277341E-2</v>
       </c>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.25">
@@ -44756,15 +44757,15 @@
       </c>
       <c r="C45">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.0351845715042984E-2</v>
+        <v>-8.574502510131787E-3</v>
       </c>
       <c r="D45">
         <f t="shared" ca="1" si="1"/>
-        <v>4.1227476709575064E-2</v>
+        <v>2.7014532227524524E-2</v>
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="2"/>
-        <v>2.4471081410745679E-2</v>
+        <v>8.2714921922745113E-2</v>
       </c>
       <c r="F45">
         <f t="shared" si="3"/>
@@ -44772,7 +44773,7 @@
       </c>
       <c r="H45">
         <f ca="1"/>
-        <v>9.9326348840940979E-4</v>
+        <v>1.1138701442358226E-3</v>
       </c>
       <c r="K45">
         <f t="shared" si="4"/>
@@ -44780,7 +44781,7 @@
       </c>
       <c r="L45">
         <f ca="1"/>
-        <v>3.8809273212727668E-3</v>
+        <v>1.7022448525198894E-2</v>
       </c>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.25">
@@ -44790,15 +44791,15 @@
       </c>
       <c r="C46">
         <f t="shared" ca="1" si="1"/>
-        <v>2.3875385050933454E-3</v>
+        <v>-3.7930079167026759E-2</v>
       </c>
       <c r="D46">
         <f t="shared" ca="1" si="1"/>
-        <v>2.2825632529699713E-2</v>
+        <v>1.2693113269399248E-2</v>
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="2"/>
-        <v>8.1156298049451566E-3</v>
+        <v>7.136868360849101E-2</v>
       </c>
       <c r="F46">
         <f t="shared" si="3"/>
@@ -44806,7 +44807,7 @@
       </c>
       <c r="H46">
         <f ca="1"/>
-        <v>1.7794413920247214E-3</v>
+        <v>1.6321654210624951E-3</v>
       </c>
       <c r="K46">
         <f t="shared" si="4"/>
@@ -44814,7 +44815,7 @@
       </c>
       <c r="L46">
         <f ca="1"/>
-        <v>0.15025611454535939</v>
+        <v>3.6150406660064624E-2</v>
       </c>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.25">
@@ -44824,15 +44825,15 @@
       </c>
       <c r="C47">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.5023912553878182E-2</v>
+        <v>3.5004080033333961E-2</v>
       </c>
       <c r="D47">
         <f t="shared" ca="1" si="1"/>
-        <v>4.9802394466065276E-4</v>
+        <v>-3.7306360159857402E-2</v>
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="2"/>
-        <v>3.0729107493967803E-2</v>
+        <v>1.8980232543341215E-2</v>
       </c>
       <c r="F47">
         <f t="shared" si="3"/>
@@ -44840,7 +44841,7 @@
       </c>
       <c r="H47">
         <f ca="1"/>
-        <v>4.6053425077293344E-3</v>
+        <v>2.3677224847715637E-3</v>
       </c>
       <c r="K47">
         <f t="shared" si="4"/>
@@ -44848,7 +44849,7 @@
       </c>
       <c r="L47">
         <f ca="1"/>
-        <v>0.21512644682959187</v>
+        <v>0.25346360711046284</v>
       </c>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.25">
@@ -44858,15 +44859,15 @@
       </c>
       <c r="C48">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.7143394238084354E-2</v>
+        <v>-2.6627727870824059E-2</v>
       </c>
       <c r="D48">
         <f t="shared" ca="1" si="1"/>
-        <v>1.9188785976471279E-2</v>
+        <v>-2.3625433442141298E-3</v>
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="2"/>
-        <v>3.6097809754578061E-2</v>
+        <v>4.485849270624101E-2</v>
       </c>
       <c r="F48">
         <f t="shared" si="3"/>
@@ -44874,7 +44875,7 @@
       </c>
       <c r="H48" s="1">
         <f ca="1"/>
-        <v>1.1238549491005934E-2</v>
+        <v>9.9307004697721229E-3</v>
       </c>
       <c r="K48">
         <f t="shared" si="4"/>
@@ -44882,7 +44883,7 @@
       </c>
       <c r="L48">
         <f ca="1"/>
-        <v>0.38444779538925605</v>
+        <v>0.18595100392579089</v>
       </c>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.25">
@@ -44892,15 +44893,15 @@
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0695632672851974E-2</v>
+        <v>3.0006410862094525E-2</v>
       </c>
       <c r="D49">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.9355186568617919E-2</v>
+        <v>3.6222613635914405E-2</v>
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="2"/>
-        <v>8.9709807985513229E-2</v>
+        <v>6.7155644667218689E-3</v>
       </c>
       <c r="F49">
         <f t="shared" si="3"/>
@@ -44908,7 +44909,7 @@
       </c>
       <c r="H49">
         <f ca="1"/>
-        <v>1.9298483455360442E-2</v>
+        <v>1.9605224572077008E-2</v>
       </c>
       <c r="K49">
         <f t="shared" si="4"/>
@@ -44916,7 +44917,7 @@
       </c>
       <c r="L49">
         <f ca="1"/>
-        <v>4.985202377228698E-2</v>
+        <v>0.30198996492152619</v>
       </c>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.25">
@@ -44926,15 +44927,15 @@
       </c>
       <c r="C50">
         <f t="shared" ca="1" si="1"/>
-        <v>2.2547479025109229E-3</v>
+        <v>-3.9575810568823436E-2</v>
       </c>
       <c r="D50">
         <f t="shared" ca="1" si="1"/>
-        <v>4.3659731613596355E-2</v>
+        <v>-2.4530400981998227E-2</v>
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="2"/>
-        <v>6.2413798670504297E-2</v>
+        <v>2.2141514467102243E-2</v>
       </c>
       <c r="F50">
         <f t="shared" si="3"/>
@@ -44942,7 +44943,7 @@
       </c>
       <c r="H50">
         <f ca="1"/>
-        <v>2.8779425521532846E-2</v>
+        <v>2.5112520638126044E-2</v>
       </c>
       <c r="K50">
         <f t="shared" si="4"/>
@@ -44950,7 +44951,7 @@
       </c>
       <c r="L50">
         <f ca="1"/>
-        <v>6.2406499979944782E-2</v>
+        <v>0.11748334668196117</v>
       </c>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.25">
@@ -44960,15 +44961,15 @@
       </c>
       <c r="C51">
         <f t="shared" ca="1" si="1"/>
-        <v>-7.422741705792513E-3</v>
+        <v>-2.5272222282088787E-2</v>
       </c>
       <c r="D51">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.3637856478530309E-2</v>
+        <v>1.5195075837509599E-2</v>
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="2"/>
-        <v>7.2225573211748606E-2</v>
+        <v>6.4436038924757175E-2</v>
       </c>
       <c r="F51">
         <f t="shared" si="3"/>
@@ -44976,7 +44977,7 @@
       </c>
       <c r="H51">
         <f ca="1"/>
-        <v>3.7161071211064864E-2</v>
+        <v>3.5909338594598203E-2</v>
       </c>
       <c r="K51">
         <f t="shared" si="4"/>
@@ -44984,7 +44985,7 @@
       </c>
       <c r="L51">
         <f ca="1"/>
-        <v>3.4512947852443097E-2</v>
+        <v>8.0659823162975482E-3</v>
       </c>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.25">
@@ -44994,15 +44995,15 @@
       </c>
       <c r="C52">
         <f t="shared" ca="1" si="1"/>
-        <v>-9.1423821210188782E-3</v>
+        <v>-3.9782672428477585E-2</v>
       </c>
       <c r="D52">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.4396457943063023E-2</v>
+        <v>-1.6666693848915514E-2</v>
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="2"/>
-        <v>7.4325880424711971E-2</v>
+        <v>7.1390356267956159E-2</v>
       </c>
       <c r="F52">
         <f t="shared" si="3"/>
@@ -45010,7 +45011,7 @@
       </c>
       <c r="H52">
         <f ca="1"/>
-        <v>4.6301811659201469E-2</v>
+        <v>4.6092319303091059E-2</v>
       </c>
       <c r="K52">
         <f t="shared" si="4"/>
@@ -45018,7 +45019,7 @@
       </c>
       <c r="L52">
         <f ca="1"/>
-        <v>1.6541556525603011E-2</v>
+        <v>3.3605357650285323E-3</v>
       </c>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.25">
@@ -45028,15 +45029,15 @@
       </c>
       <c r="C53">
         <f t="shared" ca="1" si="1"/>
-        <v>3.0662355234676631E-2</v>
+        <v>3.2492750402801198E-3</v>
       </c>
       <c r="D53">
         <f t="shared" ca="1" si="1"/>
-        <v>2.3771412494674383E-2</v>
+        <v>7.5575762272325989E-3</v>
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="2"/>
-        <v>2.4169213107130119E-2</v>
+        <v>1.1575161028438653E-2</v>
       </c>
       <c r="F53">
         <f t="shared" si="3"/>
@@ -45044,7 +45045,7 @@
       </c>
       <c r="H53">
         <f ca="1"/>
-        <v>5.6423090015136027E-2</v>
+        <v>5.7040803639723615E-2</v>
       </c>
       <c r="K53">
         <f t="shared" si="4"/>
@@ -45052,7 +45053,7 @@
       </c>
       <c r="L53">
         <f ca="1"/>
-        <v>4.1082555187061498E-2</v>
+        <v>1.5637061420895812E-2</v>
       </c>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.25">
@@ -45062,15 +45063,15 @@
       </c>
       <c r="C54">
         <f t="shared" ca="1" si="1"/>
-        <v>1.5752375403645658E-2</v>
+        <v>-3.3760999744498123E-2</v>
       </c>
       <c r="D54">
         <f t="shared" ca="1" si="1"/>
-        <v>-8.6784495954953852E-3</v>
+        <v>-2.3444772819728125E-3</v>
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="2"/>
-        <v>7.0297886983509694E-3</v>
+        <v>4.6791637781314212E-2</v>
       </c>
       <c r="F54">
         <f t="shared" si="3"/>
@@ -45078,7 +45079,7 @@
       </c>
       <c r="H54">
         <f ca="1"/>
-        <v>6.3404011375158137E-2</v>
+        <v>6.8041302001699833E-2</v>
       </c>
       <c r="K54">
         <f t="shared" si="4"/>
@@ -45086,7 +45087,7 @@
       </c>
       <c r="L54">
         <f ca="1"/>
-        <v>4.1551695376908608E-2</v>
+        <v>8.7033473563598231E-4</v>
       </c>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.25">
@@ -45096,15 +45097,15 @@
       </c>
       <c r="C55">
         <f t="shared" ca="1" si="1"/>
-        <v>1.3507923973431958E-2</v>
+        <v>1.5326584973872416E-2</v>
       </c>
       <c r="D55">
         <f t="shared" ca="1" si="1"/>
-        <v>3.4828609192721731E-2</v>
+        <v>1.6872078767002585E-2</v>
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="2"/>
-        <v>6.6880591686442115E-2</v>
+        <v>7.3047754546199939E-3</v>
       </c>
       <c r="F55">
         <f t="shared" si="3"/>
@@ -45112,7 +45113,7 @@
       </c>
       <c r="H55">
         <f ca="1"/>
-        <v>7.3109315229085675E-2</v>
+        <v>8.0178804232226605E-2</v>
       </c>
       <c r="K55">
         <f t="shared" si="4"/>
@@ -45120,7 +45121,7 @@
       </c>
       <c r="L55">
         <f ca="1"/>
-        <v>2.595408838063179E-4</v>
+        <v>1.5673816236250202E-3</v>
       </c>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.25">
@@ -45130,15 +45131,15 @@
       </c>
       <c r="C56">
         <f t="shared" ref="C56:D73" ca="1" si="5">0.1*(RAND()-0.5)</f>
-        <v>1.7873174560305384E-2</v>
+        <v>-2.237493095326587E-2</v>
       </c>
       <c r="D56">
         <f t="shared" ca="1" si="5"/>
-        <v>-2.339257385258843E-2</v>
+        <v>4.6319282867618938E-2</v>
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="2"/>
-        <v>2.0824219723169848E-2</v>
+        <v>1.0696653139494217E-2</v>
       </c>
       <c r="F56">
         <f t="shared" si="3"/>
@@ -45146,7 +45147,7 @@
       </c>
       <c r="H56">
         <f ca="1"/>
-        <v>8.1252505225642674E-2</v>
+        <v>9.3066352454961823E-2</v>
       </c>
       <c r="K56">
         <f t="shared" si="4"/>
@@ -45154,7 +45155,7 @@
       </c>
       <c r="L56">
         <f ca="1"/>
-        <v>7.2943335214826924E-4</v>
+        <v>4.3104008954585504E-4</v>
       </c>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.25">
@@ -45164,15 +45165,15 @@
       </c>
       <c r="C57">
         <f t="shared" ca="1" si="5"/>
-        <v>-2.9359947736075243E-2</v>
+        <v>2.5503632138833412E-2</v>
       </c>
       <c r="D57">
         <f t="shared" ca="1" si="5"/>
-        <v>-2.1125381463839701E-2</v>
+        <v>6.3967477817988734E-3</v>
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="2"/>
-        <v>7.8876851492815314E-2</v>
+        <v>3.979736005845888E-2</v>
       </c>
       <c r="F57">
         <f t="shared" si="3"/>
@@ -45180,7 +45181,7 @@
       </c>
       <c r="H57">
         <f ca="1"/>
-        <v>9.1937515701428899E-2</v>
+        <v>0.10028306519793184</v>
       </c>
       <c r="K57">
         <f t="shared" si="4"/>
@@ -45188,7 +45189,7 @@
       </c>
       <c r="L57">
         <f ca="1"/>
-        <v>3.2861894813198299E-5</v>
+        <v>1.4415408636441656E-4</v>
       </c>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.25">
@@ -45198,15 +45199,15 @@
       </c>
       <c r="C58">
         <f t="shared" ca="1" si="5"/>
-        <v>1.2234324959801113E-2</v>
+        <v>-3.1446987844829577E-2</v>
       </c>
       <c r="D58">
         <f t="shared" ca="1" si="5"/>
-        <v>-2.8636014594577808E-2</v>
+        <v>4.4289634413243899E-2</v>
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="2"/>
-        <v>7.283111810334722E-2</v>
+        <v>5.2571401570782827E-2</v>
       </c>
       <c r="F58">
         <f t="shared" si="3"/>
@@ -45214,7 +45215,7 @@
       </c>
       <c r="H58">
         <f ca="1"/>
-        <v>0.10286758616830416</v>
+        <v>0.10972829599596187</v>
       </c>
       <c r="K58">
         <f t="shared" si="4"/>
@@ -45222,7 +45223,7 @@
       </c>
       <c r="L58">
         <f ca="1"/>
-        <v>2.2556715750332171E-5</v>
+        <v>5.1561688132348673E-5</v>
       </c>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.25">
@@ -45232,15 +45233,15 @@
       </c>
       <c r="C59">
         <f t="shared" ca="1" si="5"/>
-        <v>-3.3492480082743539E-2</v>
+        <v>2.5036968645044046E-2</v>
       </c>
       <c r="D59">
         <f t="shared" ca="1" si="5"/>
-        <v>-7.1973143490480125E-3</v>
+        <v>4.9806430681988249E-2</v>
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="2"/>
-        <v>6.0176130998307625E-2</v>
+        <v>7.4623176735459193E-2</v>
       </c>
       <c r="F59">
         <f t="shared" si="3"/>
@@ -45248,7 +45249,7 @@
       </c>
       <c r="H59">
         <f ca="1"/>
-        <v>0.11470363483427148</v>
+        <v>0.11772841390144148</v>
       </c>
       <c r="K59">
         <f t="shared" si="4"/>
@@ -45256,7 +45257,7 @@
       </c>
       <c r="L59">
         <f ca="1"/>
-        <v>1.7493629445012487E-5</v>
+        <v>2.2419850654112169E-5</v>
       </c>
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.25">
@@ -45266,15 +45267,15 @@
       </c>
       <c r="C60">
         <f t="shared" ca="1" si="5"/>
-        <v>-2.8638174364047576E-2</v>
+        <v>-2.9608454617722546E-2</v>
       </c>
       <c r="D60">
         <f t="shared" ca="1" si="5"/>
-        <v>1.2067437972761219E-2</v>
+        <v>-4.8852686621006419E-2</v>
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="2"/>
-        <v>3.7624707777396876E-2</v>
+        <v>5.4055523770271389E-2</v>
       </c>
       <c r="F60">
         <f t="shared" si="3"/>
@@ -45282,7 +45283,7 @@
       </c>
       <c r="H60">
         <f ca="1"/>
-        <v>0.12673252777783117</v>
+        <v>0.12493689389296844</v>
       </c>
       <c r="K60">
         <f t="shared" si="4"/>
@@ -45290,7 +45291,7 @@
       </c>
       <c r="L60">
         <f ca="1"/>
-        <v>1.6559090939533863E-5</v>
+        <v>2.6134469626608954E-5</v>
       </c>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.25">
@@ -45300,15 +45301,15 @@
       </c>
       <c r="C61">
         <f t="shared" ca="1" si="5"/>
-        <v>-3.4851618456361248E-2</v>
+        <v>-5.1529189840165751E-3</v>
       </c>
       <c r="D61">
         <f t="shared" ca="1" si="5"/>
-        <v>1.1082443192394832E-2</v>
+        <v>3.4165833474986808E-3</v>
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="2"/>
-        <v>4.8725239058178167E-3</v>
+        <v>8.1463578423029329E-2</v>
       </c>
       <c r="F61">
         <f t="shared" si="3"/>
@@ -45316,7 +45317,7 @@
       </c>
       <c r="H61">
         <f ca="1"/>
-        <v>0.13740773457164782</v>
+        <v>0.1342852611101569</v>
       </c>
       <c r="K61">
         <f t="shared" si="4"/>
@@ -45324,7 +45325,7 @@
       </c>
       <c r="L61">
         <f ca="1"/>
-        <v>2.8823409908631718E-5</v>
+        <v>7.8110776530393453E-6</v>
       </c>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.25">
@@ -45334,15 +45335,15 @@
       </c>
       <c r="C62">
         <f t="shared" ca="1" si="5"/>
-        <v>-4.5629968568955291E-3</v>
+        <v>-3.9153945243264758E-2</v>
       </c>
       <c r="D62">
         <f t="shared" ca="1" si="5"/>
-        <v>-3.0929057592636255E-2</v>
+        <v>-4.560026608536917E-2</v>
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="2"/>
-        <v>8.4356789305811697E-3</v>
+        <v>5.3848937007955455E-2</v>
       </c>
       <c r="F62">
         <f t="shared" si="3"/>
@@ -45350,7 +45351,7 @@
       </c>
       <c r="H62">
         <f ca="1"/>
-        <v>0.14238697096529207</v>
+        <v>0.14343242862407743</v>
       </c>
       <c r="K62">
         <f t="shared" si="4"/>
@@ -45358,7 +45359,7 @@
       </c>
       <c r="L62">
         <f ca="1"/>
-        <v>4.6064236253194357E-6</v>
+        <v>8.9416961525979764E-6</v>
       </c>
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.25">
@@ -45368,15 +45369,15 @@
       </c>
       <c r="C63">
         <f t="shared" ca="1" si="5"/>
-        <v>-1.6942111452028921E-2</v>
+        <v>-5.7828662169007623E-3</v>
       </c>
       <c r="D63">
         <f t="shared" ca="1" si="5"/>
-        <v>2.1819212233018984E-2</v>
+        <v>1.7519255251564194E-2</v>
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="2"/>
-        <v>3.664047288020994E-2</v>
+        <v>4.7620338125920696E-2</v>
       </c>
       <c r="F63">
         <f t="shared" si="3"/>
@@ -45384,7 +45385,7 @@
       </c>
       <c r="H63">
         <f ca="1"/>
-        <v>0.15944726543211438</v>
+        <v>0.15463670644858007</v>
       </c>
       <c r="K63">
         <f t="shared" si="4"/>
@@ -45392,7 +45393,7 @@
       </c>
       <c r="L63">
         <f ca="1"/>
-        <v>8.4160598923954861E-8</v>
+        <v>6.4930706233758569E-6</v>
       </c>
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.25">
@@ -45402,15 +45403,15 @@
       </c>
       <c r="C64">
         <f t="shared" ca="1" si="5"/>
-        <v>-5.0837435174774575E-3</v>
+        <v>3.680797204829727E-2</v>
       </c>
       <c r="D64">
         <f t="shared" ca="1" si="5"/>
-        <v>4.4835459641823262E-2</v>
+        <v>9.6679085241759728E-3</v>
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="2"/>
-        <v>3.9605981514421297E-3</v>
+        <v>6.3082025392380545E-2</v>
       </c>
       <c r="F64">
         <f t="shared" si="3"/>
@@ -45418,7 +45419,7 @@
       </c>
       <c r="H64">
         <f ca="1"/>
-        <v>0.17401878318932018</v>
+        <v>0.16416216135218892</v>
       </c>
       <c r="K64">
         <f t="shared" si="4"/>
@@ -45426,7 +45427,7 @@
       </c>
       <c r="L64">
         <f ca="1"/>
-        <v>1.242306694684608E-7</v>
+        <v>2.7598388364527134E-6</v>
       </c>
     </row>
     <row r="65" spans="2:12" x14ac:dyDescent="0.25">
@@ -45436,15 +45437,15 @@
       </c>
       <c r="C65">
         <f t="shared" ca="1" si="5"/>
-        <v>1.0631032087565185E-2</v>
+        <v>-1.0107084670896627E-2</v>
       </c>
       <c r="D65">
         <f t="shared" ca="1" si="5"/>
-        <v>9.1514939392705608E-3</v>
+        <v>-3.0366980562549585E-2</v>
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="2"/>
-        <v>5.1318355026961859E-2</v>
+        <v>6.8918478065445876E-2</v>
       </c>
       <c r="F65">
         <f t="shared" si="3"/>
@@ -45452,7 +45453,7 @@
       </c>
       <c r="H65">
         <f ca="1"/>
-        <v>0.18198316561395425</v>
+        <v>0.173375204586734</v>
       </c>
       <c r="K65">
         <f t="shared" si="4"/>
@@ -45460,7 +45461,7 @@
       </c>
       <c r="L65">
         <f ca="1"/>
-        <v>2.4620710184111776E-8</v>
+        <v>1.4424084057511069E-6</v>
       </c>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.25">
@@ -45470,15 +45471,15 @@
       </c>
       <c r="C66">
         <f t="shared" ca="1" si="5"/>
-        <v>-1.9394132481743168E-2</v>
+        <v>-2.995761970153904E-2</v>
       </c>
       <c r="D66">
         <f t="shared" ca="1" si="5"/>
-        <v>4.8577957891091178E-2</v>
+        <v>-2.6529055303334749E-2</v>
       </c>
       <c r="E66">
         <f t="shared" ca="1" si="2"/>
-        <v>7.482678454953505E-2</v>
+        <v>8.6755869379142175E-2</v>
       </c>
       <c r="F66">
         <f t="shared" si="3"/>
@@ -45486,7 +45487,7 @@
       </c>
       <c r="H66">
         <f ca="1"/>
-        <v>0.19155080757080381</v>
+        <v>0.18341884747257764</v>
       </c>
       <c r="K66">
         <f t="shared" si="4"/>
@@ -45494,7 +45495,7 @@
       </c>
       <c r="L66">
         <f ca="1"/>
-        <v>7.2492037977713121E-9</v>
+        <v>5.2291870870868049E-7</v>
       </c>
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.25">
@@ -45504,15 +45505,15 @@
       </c>
       <c r="C67">
         <f t="shared" ca="1" si="5"/>
-        <v>2.6786658954690824E-2</v>
+        <v>2.7563627165377483E-2</v>
       </c>
       <c r="D67">
         <f t="shared" ca="1" si="5"/>
-        <v>-4.3057107597910461E-2</v>
+        <v>2.4200170217928529E-2</v>
       </c>
       <c r="E67">
         <f t="shared" ca="1" si="2"/>
-        <v>7.30926435142423E-2</v>
+        <v>3.862639467166943E-2</v>
       </c>
       <c r="F67">
         <f t="shared" si="3"/>
@@ -45520,7 +45521,7 @@
       </c>
       <c r="H67">
         <f ca="1"/>
-        <v>0.20038824658489293</v>
+        <v>0.19385643905360811</v>
       </c>
       <c r="K67">
         <f t="shared" si="4"/>
@@ -45528,7 +45529,7 @@
       </c>
       <c r="L67">
         <f ca="1"/>
-        <v>3.9726076445009058E-9</v>
+        <v>1.1482208977057565E-6</v>
       </c>
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.25">
@@ -45538,15 +45539,15 @@
       </c>
       <c r="C68">
         <f t="shared" ca="1" si="5"/>
-        <v>-4.9209640123630077E-2</v>
+        <v>-1.1821242023649871E-3</v>
       </c>
       <c r="D68">
         <f t="shared" ca="1" si="5"/>
-        <v>2.0594675410717501E-2</v>
+        <v>-2.0752269840147022E-2</v>
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="2"/>
-        <v>8.74947809044937E-3</v>
+        <v>1.6318277660549798E-2</v>
       </c>
       <c r="F68">
         <f t="shared" si="3"/>
@@ -45554,7 +45555,7 @@
       </c>
       <c r="H68">
         <f ca="1"/>
-        <v>0.21165794593439913</v>
+        <v>0.20181528726060374</v>
       </c>
       <c r="K68">
         <f t="shared" si="4"/>
@@ -45562,7 +45563,7 @@
       </c>
       <c r="L68">
         <f ca="1"/>
-        <v>1.8761651358971207E-8</v>
+        <v>1.4253659265753541E-6</v>
       </c>
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.25">
@@ -45572,15 +45573,15 @@
       </c>
       <c r="C69">
         <f t="shared" ca="1" si="5"/>
-        <v>3.2881809735080217E-2</v>
+        <v>2.5883471726577137E-2</v>
       </c>
       <c r="D69">
         <f t="shared" ca="1" si="5"/>
-        <v>2.8246582320589998E-2</v>
+        <v>-3.4154528858458315E-2</v>
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="2"/>
-        <v>3.4008195584281344E-2</v>
+        <v>4.741376525689317E-2</v>
       </c>
       <c r="F69">
         <f t="shared" si="3"/>
@@ -45588,7 +45589,7 @@
       </c>
       <c r="H69">
         <f ca="1"/>
-        <v>0.22006411683238591</v>
+        <v>0.21243217411654275</v>
       </c>
       <c r="K69">
         <f t="shared" si="4"/>
@@ -45596,7 +45597,7 @@
       </c>
       <c r="L69">
         <f ca="1"/>
-        <v>3.6325169883653077E-9</v>
+        <v>7.5660020728702005E-8</v>
       </c>
     </row>
     <row r="70" spans="2:12" x14ac:dyDescent="0.25">
@@ -45606,15 +45607,15 @@
       </c>
       <c r="C70">
         <f t="shared" ca="1" si="5"/>
-        <v>-3.8720200404239319E-2</v>
+        <v>2.5199454451859907E-2</v>
       </c>
       <c r="D70">
         <f t="shared" ca="1" si="5"/>
-        <v>3.2122333243112734E-2</v>
+        <v>1.9196710228401328E-2</v>
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="2"/>
-        <v>9.2684810948157115E-2</v>
+        <v>5.599782644434545E-2</v>
       </c>
       <c r="F70">
         <f t="shared" si="3"/>
@@ -45622,7 +45623,7 @@
       </c>
       <c r="H70">
         <f ca="1"/>
-        <v>0.22890572634109524</v>
+        <v>0.2258504616069735</v>
       </c>
       <c r="K70">
         <f t="shared" si="4"/>
@@ -45630,7 +45631,7 @@
       </c>
       <c r="L70">
         <f ca="1"/>
-        <v>4.9128658564008368E-10</v>
+        <v>2.3351425611925885E-8</v>
       </c>
     </row>
     <row r="71" spans="2:12" x14ac:dyDescent="0.25">
@@ -45640,15 +45641,15 @@
       </c>
       <c r="C71">
         <f t="shared" ca="1" si="5"/>
-        <v>1.283705496799571E-2</v>
+        <v>-4.1642231650787592E-2</v>
       </c>
       <c r="D71">
         <f t="shared" ca="1" si="5"/>
-        <v>-4.2756481964916354E-2</v>
+        <v>3.7548973438907953E-3</v>
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="2"/>
-        <v>8.9307485590916544E-2</v>
+        <v>6.9446926292055624E-3</v>
       </c>
       <c r="F71">
         <f t="shared" si="3"/>
@@ -45656,7 +45657,7 @@
       </c>
       <c r="H71">
         <f ca="1"/>
-        <v>0.23727854199139015</v>
+        <v>0.23832176006300035</v>
       </c>
       <c r="K71">
         <f t="shared" si="4"/>
@@ -45664,7 +45665,7 @@
       </c>
       <c r="L71">
         <f ca="1"/>
-        <v>3.2751621936066935E-10</v>
+        <v>8.5516570058114136E-8</v>
       </c>
     </row>
     <row r="72" spans="2:12" x14ac:dyDescent="0.25">
@@ -45674,15 +45675,15 @@
       </c>
       <c r="C72">
         <f t="shared" ca="1" si="5"/>
-        <v>-4.8262526076703342E-7</v>
+        <v>-4.0178662835299556E-2</v>
       </c>
       <c r="D72">
         <f t="shared" ca="1" si="5"/>
-        <v>-8.2756674552956992E-3</v>
+        <v>6.1239259983466576E-3</v>
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="2"/>
-        <v>7.1127115371873828E-2</v>
+        <v>4.0436865991087872E-3</v>
       </c>
       <c r="F72">
         <f t="shared" si="3"/>
@@ -45690,7 +45691,7 @@
       </c>
       <c r="H72">
         <f ca="1"/>
-        <v>0.24685397499763737</v>
+        <v>0.24865231494125731</v>
       </c>
       <c r="K72">
         <f t="shared" si="4"/>
@@ -45698,7 +45699,7 @@
       </c>
       <c r="L72">
         <f ca="1"/>
-        <v>2.3568170804929643E-10</v>
+        <v>1.1135011040889424E-8</v>
       </c>
     </row>
     <row r="73" spans="2:12" x14ac:dyDescent="0.25">
@@ -45708,15 +45709,15 @@
       </c>
       <c r="C73">
         <f t="shared" ca="1" si="5"/>
-        <v>-3.1681924475069172E-2</v>
+        <v>-2.3746226355615199E-2</v>
       </c>
       <c r="D73">
         <f t="shared" ca="1" si="5"/>
-        <v>3.8169858844200377E-2</v>
+        <v>8.4202718432534358E-3</v>
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="2"/>
-        <v>7.9928255238326334E-2</v>
+        <v>5.2529266780194851E-2</v>
       </c>
       <c r="F73">
         <f t="shared" si="3"/>
@@ -45724,7 +45725,7 @@
       </c>
       <c r="H73">
         <f ca="1"/>
-        <v>0.2570358475775848</v>
+        <v>0.25652286248951678</v>
       </c>
       <c r="K73">
         <f t="shared" si="4"/>
@@ -45732,7 +45733,7 @@
       </c>
       <c r="L73">
         <f ca="1"/>
-        <v>1.5023108289894216E-9</v>
+        <v>1.9438808414229874E-9</v>
       </c>
     </row>
   </sheetData>
